--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_016.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_016.xlsx
@@ -696,145 +696,145 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>46.1386645397254</v>
+        <v>19.25772787525087</v>
       </c>
       <c r="E2" t="n">
-        <v>15.59879358972898</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>49.43626117563741</v>
+        <v>39.88824844949961</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.163659154749489</v>
+        <v>23.17298391221535</v>
       </c>
       <c r="I2" t="n">
-        <v>39.01420979520584</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>82.67999573472707</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>31.05245474174574</v>
       </c>
       <c r="L2" t="n">
-        <v>74.62955529569199</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>131.6216875337615</v>
+        <v>129.7436768565393</v>
       </c>
       <c r="N2" t="n">
-        <v>136.6698365119489</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>30.1621315086933</v>
+        <v>27.57198835906543</v>
       </c>
       <c r="P2" t="n">
-        <v>58.35012607555143</v>
+        <v>22.30986678526173</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.85769689205211</v>
+        <v>24.75211222776085</v>
       </c>
       <c r="R2" t="n">
-        <v>47.72289894922993</v>
+        <v>54.80735115055581</v>
       </c>
       <c r="S2" t="n">
-        <v>40.11969646826298</v>
+        <v>191.9675737078033</v>
       </c>
       <c r="T2" t="n">
-        <v>81.06238800206685</v>
+        <v>56.88353832417548</v>
       </c>
       <c r="U2" t="n">
-        <v>56.72646942159444</v>
+        <v>70.02258287918507</v>
       </c>
       <c r="V2" t="n">
-        <v>63.3053904842358</v>
+        <v>73.20646019181477</v>
       </c>
       <c r="W2" t="n">
-        <v>52.80723078452445</v>
+        <v>40.31767907156178</v>
       </c>
       <c r="X2" t="n">
-        <v>69.75217010500262</v>
+        <v>41.50819211917187</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.48407440658478</v>
+        <v>48.35657250072138</v>
       </c>
       <c r="Z2" t="n">
-        <v>53.84474284969801</v>
+        <v>88.68359005755001</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.10856872270807</v>
+        <v>18.78449516473867</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.03147417053634</v>
+        <v>58.51982142665906</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.9064437481062</v>
+        <v>66.18440195659821</v>
       </c>
       <c r="AD2" t="n">
-        <v>80.24355821866794</v>
+        <v>20.72434801216694</v>
       </c>
       <c r="AE2" t="n">
-        <v>93.69700102012418</v>
+        <v>76.98172036978661</v>
       </c>
       <c r="AF2" t="n">
-        <v>143.7701268474164</v>
+        <v>185.0277071893025</v>
       </c>
       <c r="AG2" t="n">
-        <v>53.1363686485674</v>
+        <v>120.7200381948713</v>
       </c>
       <c r="AH2" t="n">
-        <v>91.44624563861242</v>
+        <v>93.05775440591793</v>
       </c>
       <c r="AI2" t="n">
-        <v>199.4804216130257</v>
+        <v>136.1472600669069</v>
       </c>
       <c r="AJ2" t="n">
-        <v>93.48450437934436</v>
+        <v>125.3759819379555</v>
       </c>
       <c r="AK2" t="n">
-        <v>37.21356502615953</v>
+        <v>143.8481446325537</v>
       </c>
       <c r="AL2" t="n">
-        <v>39.00599584495932</v>
+        <v>117.2039452767326</v>
       </c>
       <c r="AM2" t="n">
-        <v>42.13511722293866</v>
+        <v>34.55129568841914</v>
       </c>
       <c r="AN2" t="n">
-        <v>23.60646031336353</v>
+        <v>33.99926626710543</v>
       </c>
       <c r="AO2" t="n">
-        <v>29.91159127297605</v>
+        <v>14.83232274601503</v>
       </c>
       <c r="AP2" t="n">
-        <v>20.1757298296982</v>
+        <v>26.49538625362181</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29.95475961839279</v>
+        <v>72.74045588003356</v>
       </c>
       <c r="AR2" t="n">
-        <v>20.17340077297711</v>
+        <v>38.77441721456387</v>
       </c>
       <c r="AS2" t="n">
-        <v>19.61309061344764</v>
+        <v>19.73744190094182</v>
       </c>
       <c r="AT2" t="n">
-        <v>24.67196162580291</v>
+        <v>21.88798969772186</v>
       </c>
       <c r="AU2" t="n">
-        <v>17.37513830325996</v>
+        <v>22.97668943486057</v>
       </c>
       <c r="AV2" t="n">
-        <v>43.50225784342695</v>
+        <v>12.97366085309929</v>
       </c>
       <c r="AW2" t="n">
-        <v>14.29517218771347</v>
+        <v>21.80054802893375</v>
       </c>
       <c r="AX2" t="n">
-        <v>20.21679040905993</v>
+        <v>44.92109910724423</v>
       </c>
     </row>
     <row r="3">
@@ -848,145 +848,145 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.153670121767266</v>
+        <v>3.258998316477506</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.225651211859653</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7.024552574926903</v>
       </c>
       <c r="H3" t="n">
-        <v>1.546680228433781</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.722138634038836</v>
+        <v>1.758682573537407</v>
       </c>
       <c r="J3" t="n">
-        <v>10.52358843615516</v>
+        <v>3.523517067767123</v>
       </c>
       <c r="K3" t="n">
-        <v>2.167753800281139</v>
+        <v>13.52524783859568</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4259512175847028</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5.291854488520107</v>
+        <v>0.5873635926532311</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9536446441015671</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.337832226967041</v>
+        <v>9.819738467316959</v>
       </c>
       <c r="P3" t="n">
-        <v>1.840117982593178</v>
+        <v>2.02895353855769</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.098443836588896</v>
+        <v>5.081763177832515</v>
       </c>
       <c r="R3" t="n">
-        <v>2.346606973210396</v>
+        <v>4.876752747985917</v>
       </c>
       <c r="S3" t="n">
-        <v>2.863710564911014</v>
+        <v>3.192513820028918</v>
       </c>
       <c r="T3" t="n">
-        <v>2.812240284779932</v>
+        <v>5.277442180077905</v>
       </c>
       <c r="U3" t="n">
-        <v>2.62485801990783</v>
+        <v>9.804965632303727</v>
       </c>
       <c r="V3" t="n">
-        <v>2.633077376645185</v>
+        <v>1.050040653739251</v>
       </c>
       <c r="W3" t="n">
-        <v>3.437461656757312</v>
+        <v>8.256070602942623</v>
       </c>
       <c r="X3" t="n">
-        <v>3.03719530441384</v>
+        <v>3.246712629492711</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.414463941770487</v>
+        <v>6.423459395391228</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.069879485161836</v>
+        <v>8.019871912664057</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.559924388361699</v>
+        <v>6.426790492607653</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.958853676237136</v>
+        <v>3.843744871261899</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.811322246492213</v>
+        <v>5.572029536441798</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.475149716440729</v>
+        <v>3.627393437199061</v>
       </c>
       <c r="AE3" t="n">
-        <v>9.475766720134315</v>
+        <v>1.31289388728134</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.864986212302256</v>
+        <v>8.937623491226155</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.806951774393184</v>
+        <v>6.103202769205144</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.904094053849462</v>
+        <v>7.642890409150931</v>
       </c>
       <c r="AI3" t="n">
-        <v>5.965829512208522</v>
+        <v>5.270424664453961</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5.183679237222037</v>
+        <v>5.117370587404488</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.514818866093971</v>
+        <v>4.772498839733272</v>
       </c>
       <c r="AL3" t="n">
-        <v>7.733880693514882</v>
+        <v>1.051658983833121</v>
       </c>
       <c r="AM3" t="n">
-        <v>4.609898134781942</v>
+        <v>6.2965638935732</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.167490841556459</v>
+        <v>0.5956285806590286</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.505336529380729</v>
+        <v>2.486371561656363</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.635901732626039</v>
+        <v>7.299644413306857</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.656578475379964</v>
+        <v>2.957055872790229</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.27876080173577</v>
+        <v>3.147434237755299</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.449399313316597</v>
+        <v>0.6462545558321023</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.475092585921395</v>
+        <v>5.268917698840493</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.567641496579474</v>
+        <v>7.798710514753384</v>
       </c>
       <c r="AV3" t="n">
-        <v>7.257858120913232</v>
+        <v>5.890126441871057</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.406018282522295</v>
+        <v>2.666055725502351</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.672495898468948</v>
+        <v>3.755036999034997</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>11.48538998714953</v>
+        <v>13.4916577221445</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>84.55979384073484</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>166.3668295655605</v>
       </c>
       <c r="F4" t="n">
-        <v>18.09505952159105</v>
+        <v>119.5319500892233</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>33.36236201221923</v>
       </c>
       <c r="H4" t="n">
-        <v>126.2482660497382</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>190.2318986215032</v>
+        <v>12.48468166187746</v>
       </c>
       <c r="K4" t="n">
-        <v>151.1834905629458</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15.26773764068866</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>83.89976402161346</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>52.0120947438194</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>10.66953023344233</v>
+        <v>11.11369845544012</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09711427152099</v>
+        <v>57.3319893788689</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.4636991833522</v>
+        <v>19.54534775453884</v>
       </c>
       <c r="R4" t="n">
-        <v>64.2249073085528</v>
+        <v>53.18079014799841</v>
       </c>
       <c r="S4" t="n">
-        <v>107.8735152008965</v>
+        <v>79.38940732287689</v>
       </c>
       <c r="T4" t="n">
-        <v>67.66658465082887</v>
+        <v>301.4050967029595</v>
       </c>
       <c r="U4" t="n">
-        <v>31.96254497644779</v>
+        <v>48.20554468890047</v>
       </c>
       <c r="V4" t="n">
-        <v>101.1655231772727</v>
+        <v>59.98064354097606</v>
       </c>
       <c r="W4" t="n">
-        <v>62.08877318099462</v>
+        <v>71.77627918683744</v>
       </c>
       <c r="X4" t="n">
-        <v>74.83798745977558</v>
+        <v>43.91885887870438</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.18781438893531</v>
+        <v>134.8786842392324</v>
       </c>
       <c r="Z4" t="n">
-        <v>76.75414656183465</v>
+        <v>64.18418287792929</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.96071857911961</v>
+        <v>179.153719828039</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.50200734952608</v>
+        <v>92.52958835515135</v>
       </c>
       <c r="AC4" t="n">
-        <v>30.91087691722961</v>
+        <v>38.66855437070134</v>
       </c>
       <c r="AD4" t="n">
-        <v>44.39722725458275</v>
+        <v>9.735353731978297</v>
       </c>
       <c r="AE4" t="n">
-        <v>110.6234229290192</v>
+        <v>74.01747122316634</v>
       </c>
       <c r="AF4" t="n">
-        <v>51.51724603506671</v>
+        <v>84.42230057909804</v>
       </c>
       <c r="AG4" t="n">
-        <v>68.33780191740652</v>
+        <v>16.12989957959986</v>
       </c>
       <c r="AH4" t="n">
-        <v>109.9709995650162</v>
+        <v>68.68759581801798</v>
       </c>
       <c r="AI4" t="n">
-        <v>30.68761804135114</v>
+        <v>10.53423589707345</v>
       </c>
       <c r="AJ4" t="n">
-        <v>70.84822361932706</v>
+        <v>24.90725000863677</v>
       </c>
       <c r="AK4" t="n">
-        <v>39.4438817089346</v>
+        <v>100.997507975724</v>
       </c>
       <c r="AL4" t="n">
-        <v>26.13936392663812</v>
+        <v>36.80801779773557</v>
       </c>
       <c r="AM4" t="n">
-        <v>30.31409680631972</v>
+        <v>7.948545480327558</v>
       </c>
       <c r="AN4" t="n">
-        <v>17.74787409293642</v>
+        <v>8.354309359803707</v>
       </c>
       <c r="AO4" t="n">
-        <v>22.38043009469557</v>
+        <v>1.961848625787269</v>
       </c>
       <c r="AP4" t="n">
-        <v>11.6200555647491</v>
+        <v>22.93302761791366</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18.63965164038708</v>
+        <v>3.958391891368778</v>
       </c>
       <c r="AR4" t="n">
-        <v>20.44694504398936</v>
+        <v>17.62106913155069</v>
       </c>
       <c r="AS4" t="n">
-        <v>9.045471265358698</v>
+        <v>24.68378994107999</v>
       </c>
       <c r="AT4" t="n">
-        <v>4.920130345108799</v>
+        <v>12.29911151306561</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.920226076493718</v>
+        <v>45.77738219706959</v>
       </c>
       <c r="AV4" t="n">
-        <v>12.11124593861166</v>
+        <v>16.89924642385182</v>
       </c>
       <c r="AW4" t="n">
-        <v>14.21888048203539</v>
+        <v>4.589504778425673</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.1998351422519</v>
+        <v>17.55388041468441</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>31.36508690160134</v>
       </c>
       <c r="D5" t="n">
-        <v>5.093677020877248</v>
+        <v>33.77175340505521</v>
       </c>
       <c r="E5" t="n">
-        <v>2.431379350955305</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13.82203566747933</v>
+        <v>33.49299039012622</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>28.1030825368047</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>59.76039647091898</v>
+        <v>15.70454948579688</v>
       </c>
       <c r="J5" t="n">
-        <v>5.047213106255452</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>20.18131545857642</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>67.69610667391873</v>
+        <v>126.7813318590036</v>
       </c>
       <c r="M5" t="n">
-        <v>40.64863291289939</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>29.85571534157373</v>
+        <v>22.60662305860006</v>
       </c>
       <c r="O5" t="n">
-        <v>27.17243466399067</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>62.20583982089097</v>
       </c>
       <c r="Q5" t="n">
-        <v>38.71259021406269</v>
+        <v>72.64486038254896</v>
       </c>
       <c r="R5" t="n">
-        <v>35.07042110517018</v>
+        <v>24.40536204400655</v>
       </c>
       <c r="S5" t="n">
-        <v>53.82715178861805</v>
+        <v>111.7336953517878</v>
       </c>
       <c r="T5" t="n">
-        <v>39.90187534079659</v>
+        <v>162.9731030896605</v>
       </c>
       <c r="U5" t="n">
-        <v>128.7306433925927</v>
+        <v>34.61103920285036</v>
       </c>
       <c r="V5" t="n">
-        <v>33.66670679445425</v>
+        <v>44.05597536196396</v>
       </c>
       <c r="W5" t="n">
-        <v>42.97934150387481</v>
+        <v>106.7887302249477</v>
       </c>
       <c r="X5" t="n">
-        <v>9.219149615265104</v>
+        <v>90.48270153564489</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.8009046642377</v>
+        <v>42.41133135810851</v>
       </c>
       <c r="Z5" t="n">
-        <v>58.29389289447856</v>
+        <v>92.69914429193523</v>
       </c>
       <c r="AA5" t="n">
-        <v>71.7682116437398</v>
+        <v>46.95334097324552</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.26439371797203</v>
+        <v>65.09521902953445</v>
       </c>
       <c r="AC5" t="n">
-        <v>43.74865232526977</v>
+        <v>6.003147120862817</v>
       </c>
       <c r="AD5" t="n">
-        <v>173.0878695517556</v>
+        <v>55.80562341550028</v>
       </c>
       <c r="AE5" t="n">
-        <v>73.96290133394837</v>
+        <v>46.54513860578742</v>
       </c>
       <c r="AF5" t="n">
-        <v>28.58544498820115</v>
+        <v>2.377661886777612</v>
       </c>
       <c r="AG5" t="n">
-        <v>22.59088183730893</v>
+        <v>32.40928487665983</v>
       </c>
       <c r="AH5" t="n">
-        <v>27.69007866101637</v>
+        <v>52.66557738821379</v>
       </c>
       <c r="AI5" t="n">
-        <v>29.32312439507315</v>
+        <v>26.78296803760277</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19.0653210110394</v>
+        <v>22.38295091534166</v>
       </c>
       <c r="AK5" t="n">
-        <v>19.38667117038815</v>
+        <v>33.37761199284947</v>
       </c>
       <c r="AL5" t="n">
-        <v>2.303241170207419</v>
+        <v>39.20546826123822</v>
       </c>
       <c r="AM5" t="n">
-        <v>16.00637700485169</v>
+        <v>7.686035860629117</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.89052184669966</v>
+        <v>21.01621837824839</v>
       </c>
       <c r="AO5" t="n">
-        <v>27.9102019712703</v>
+        <v>35.09464467629629</v>
       </c>
       <c r="AP5" t="n">
-        <v>35.751913720999</v>
+        <v>39.27823634705457</v>
       </c>
       <c r="AQ5" t="n">
-        <v>28.35660768711504</v>
+        <v>21.84922192104256</v>
       </c>
       <c r="AR5" t="n">
-        <v>34.54880502673708</v>
+        <v>27.56512467053834</v>
       </c>
       <c r="AS5" t="n">
-        <v>31.68612510582846</v>
+        <v>41.39598867378431</v>
       </c>
       <c r="AT5" t="n">
-        <v>11.80244639613814</v>
+        <v>16.47015461902591</v>
       </c>
       <c r="AU5" t="n">
-        <v>21.0386796831049</v>
+        <v>26.8737435062659</v>
       </c>
       <c r="AV5" t="n">
-        <v>31.13678508399301</v>
+        <v>21.12357776148547</v>
       </c>
       <c r="AW5" t="n">
-        <v>24.21111799535902</v>
+        <v>21.78871375247991</v>
       </c>
       <c r="AX5" t="n">
-        <v>21.11143358673699</v>
+        <v>18.31063323636734</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6917468626673702</v>
+        <v>13.43665153178938</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>17.89683962787265</v>
       </c>
       <c r="E6" t="n">
-        <v>5.181128979647603</v>
+        <v>13.98063867171516</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>63.47716013396277</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>70.93399397686204</v>
       </c>
       <c r="H6" t="n">
-        <v>3.266092023821901</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6.746858046111811</v>
+        <v>4.081938224904816</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>44.16899330307125</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8387585876347061</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>52.04165608744652</v>
+        <v>4.66562235344477</v>
       </c>
       <c r="N6" t="n">
-        <v>36.37320827598518</v>
+        <v>8.390817349814949</v>
       </c>
       <c r="O6" t="n">
-        <v>14.15808375543727</v>
+        <v>41.86810981102705</v>
       </c>
       <c r="P6" t="n">
-        <v>26.98063741170285</v>
+        <v>103.5060533547322</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.4205487062647</v>
+        <v>20.69548553686039</v>
       </c>
       <c r="R6" t="n">
-        <v>14.1464945850159</v>
+        <v>28.95011265888501</v>
       </c>
       <c r="S6" t="n">
-        <v>20.22833697047079</v>
+        <v>37.3977845867616</v>
       </c>
       <c r="T6" t="n">
-        <v>13.58320459237745</v>
+        <v>7.818540192283267</v>
       </c>
       <c r="U6" t="n">
-        <v>23.15480753844791</v>
+        <v>14.05354449264172</v>
       </c>
       <c r="V6" t="n">
-        <v>23.26943640407433</v>
+        <v>45.84539761969745</v>
       </c>
       <c r="W6" t="n">
-        <v>21.37057861743584</v>
+        <v>10.66798804113445</v>
       </c>
       <c r="X6" t="n">
-        <v>35.55665987014301</v>
+        <v>13.47021807444769</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.82589002951994</v>
+        <v>61.53699813541965</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.7719187827379</v>
+        <v>11.98385455970248</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.12390043032052</v>
+        <v>11.3119084568865</v>
       </c>
       <c r="AB6" t="n">
-        <v>35.92755747313571</v>
+        <v>9.818795854564081</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.22447492527734</v>
+        <v>17.57614520914161</v>
       </c>
       <c r="AD6" t="n">
-        <v>22.69869198264255</v>
+        <v>10.56714461671322</v>
       </c>
       <c r="AE6" t="n">
-        <v>19.12254148138732</v>
+        <v>12.34832344723096</v>
       </c>
       <c r="AF6" t="n">
-        <v>15.09099627464497</v>
+        <v>18.11708424671438</v>
       </c>
       <c r="AG6" t="n">
-        <v>6.043433203285997</v>
+        <v>17.07978763435749</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.312986745150759</v>
+        <v>10.66050389959438</v>
       </c>
       <c r="AI6" t="n">
-        <v>9.91033750556983</v>
+        <v>10.57460970609429</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16.59016452268125</v>
+        <v>27.46757133814448</v>
       </c>
       <c r="AK6" t="n">
-        <v>7.861865425402963</v>
+        <v>14.1163345336029</v>
       </c>
       <c r="AL6" t="n">
-        <v>14.33541950335474</v>
+        <v>24.58053246919917</v>
       </c>
       <c r="AM6" t="n">
-        <v>8.530028705348363</v>
+        <v>2.367784740268822</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.444315167810376</v>
+        <v>5.022614755913278</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.013080676121634</v>
+        <v>1.512234846015052</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.971693677257211</v>
+        <v>3.612879133381302</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4.373902823757732</v>
+        <v>8.664100286122762</v>
       </c>
       <c r="AR6" t="n">
-        <v>6.229992019176181</v>
+        <v>3.441049650834465</v>
       </c>
       <c r="AS6" t="n">
-        <v>5.03654739654641</v>
+        <v>3.404418393439206</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.082076454747517</v>
+        <v>5.647994189140107</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.187581269938026</v>
+        <v>4.549071574239615</v>
       </c>
       <c r="AV6" t="n">
-        <v>5.973906687274242</v>
+        <v>5.047729108002429</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.01465398721529831</v>
+        <v>1.40119241870451</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.259179714782982</v>
+        <v>3.352476315002305</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18.5836394622851</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>32.62471325223608</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>15.90528858182451</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.8297747972602</v>
       </c>
       <c r="H7" t="n">
-        <v>37.76362571965347</v>
+        <v>61.52855285966179</v>
       </c>
       <c r="I7" t="n">
-        <v>42.82410885152564</v>
+        <v>47.21213804497643</v>
       </c>
       <c r="J7" t="n">
-        <v>20.72456862268181</v>
+        <v>27.69003009565509</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>82.91385902628924</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>17.73737096813514</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>13.08061428357422</v>
+        <v>39.92222190906698</v>
       </c>
       <c r="O7" t="n">
-        <v>37.90414127267501</v>
+        <v>23.95789051585255</v>
       </c>
       <c r="P7" t="n">
-        <v>27.65324802539119</v>
+        <v>27.70783076635622</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.223574923224383</v>
+        <v>10.63732561632507</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>18.84147880043104</v>
       </c>
       <c r="S7" t="n">
-        <v>30.60173367067835</v>
+        <v>5.947779200291622</v>
       </c>
       <c r="T7" t="n">
-        <v>16.38419002585707</v>
+        <v>21.34065673129328</v>
       </c>
       <c r="U7" t="n">
-        <v>19.21096923159568</v>
+        <v>73.30837210273262</v>
       </c>
       <c r="V7" t="n">
-        <v>150.6799333731602</v>
+        <v>83.84915671605536</v>
       </c>
       <c r="W7" t="n">
-        <v>35.9549694899309</v>
+        <v>9.483428169504039</v>
       </c>
       <c r="X7" t="n">
-        <v>19.52801787920649</v>
+        <v>23.96942067908347</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>22.28315138372766</v>
       </c>
       <c r="Z7" t="n">
-        <v>104.3348216819192</v>
+        <v>16.01418147650594</v>
       </c>
       <c r="AA7" t="n">
-        <v>10.43787830806292</v>
+        <v>1.251595674036817</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.883803290181957</v>
+        <v>5.278433455062113</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>11.55822677583135</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.953599882771169</v>
+        <v>4.71603865054862</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.248083205209845</v>
+        <v>39.69023576916265</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.213623650386188</v>
+        <v>21.45309528569778</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.12195337455726</v>
+        <v>0.2462284342301095</v>
       </c>
       <c r="AH7" t="n">
-        <v>25.22355819716057</v>
+        <v>2.253432114302436</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.732228478220165</v>
+        <v>25.01993696222254</v>
       </c>
       <c r="AJ7" t="n">
-        <v>42.57940169396809</v>
+        <v>7.093958891552985</v>
       </c>
       <c r="AK7" t="n">
-        <v>28.90115287917438</v>
+        <v>15.65491528341374</v>
       </c>
       <c r="AL7" t="n">
-        <v>24.28420121073232</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.6447090677133309</v>
+        <v>7.889146166558673</v>
       </c>
       <c r="AN7" t="n">
-        <v>11.22647972969948</v>
+        <v>2.610392477830594</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.7843841702132717</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>7.814009311744145</v>
+        <v>9.007158648893441</v>
       </c>
       <c r="AQ7" t="n">
-        <v>9.861364706023915</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0583115415810076</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>4.300987406332249</v>
+        <v>2.378003949106096</v>
       </c>
       <c r="AT7" t="n">
-        <v>9.464953177057261</v>
+        <v>4.69035016395499</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>9.991157256593963</v>
       </c>
       <c r="AV7" t="n">
-        <v>3.198396967323919</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>11.49398403108863</v>
+        <v>8.807025712474235</v>
       </c>
       <c r="AX7" t="n">
-        <v>12.05385157930833</v>
+        <v>1.951857976548621</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>34.51398756975751</v>
+        <v>19.13483416191131</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>53.8338532300907</v>
       </c>
       <c r="E8" t="n">
-        <v>29.39294409677922</v>
+        <v>80.29154353439316</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>8.442792160557092</v>
       </c>
       <c r="H8" t="n">
-        <v>29.42469837226403</v>
+        <v>82.19714738289802</v>
       </c>
       <c r="I8" t="n">
-        <v>33.28649922794403</v>
+        <v>208.9569766131587</v>
       </c>
       <c r="J8" t="n">
-        <v>30.43417954573078</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>86.01133553709018</v>
+        <v>97.69016007403221</v>
       </c>
       <c r="L8" t="n">
-        <v>94.01577334927865</v>
+        <v>27.28224409968849</v>
       </c>
       <c r="M8" t="n">
-        <v>85.95603588935788</v>
+        <v>11.384541564088</v>
       </c>
       <c r="N8" t="n">
-        <v>56.94872549403539</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>10.56974197119613</v>
+        <v>77.39355599810843</v>
       </c>
       <c r="P8" t="n">
-        <v>0.852529748877803</v>
+        <v>58.15012949086318</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.19911641004688</v>
+        <v>57.21177517761421</v>
       </c>
       <c r="R8" t="n">
-        <v>65.02132529411381</v>
+        <v>204.8509736024316</v>
       </c>
       <c r="S8" t="n">
-        <v>48.41317270989384</v>
+        <v>142.8094067333907</v>
       </c>
       <c r="T8" t="n">
-        <v>64.09849791209353</v>
+        <v>18.87548371227428</v>
       </c>
       <c r="U8" t="n">
-        <v>46.00792154996492</v>
+        <v>41.0862757960918</v>
       </c>
       <c r="V8" t="n">
-        <v>134.1751967050853</v>
+        <v>77.59869586579201</v>
       </c>
       <c r="W8" t="n">
-        <v>125.8941928241711</v>
+        <v>106.8879673675878</v>
       </c>
       <c r="X8" t="n">
-        <v>19.0407271731298</v>
+        <v>28.76195097049832</v>
       </c>
       <c r="Y8" t="n">
-        <v>74.06273991753146</v>
+        <v>70.57494725504054</v>
       </c>
       <c r="Z8" t="n">
-        <v>64.48696573864306</v>
+        <v>37.47876500956617</v>
       </c>
       <c r="AA8" t="n">
-        <v>49.13862864723417</v>
+        <v>82.67786357610748</v>
       </c>
       <c r="AB8" t="n">
-        <v>131.8545252887212</v>
+        <v>24.52749405779453</v>
       </c>
       <c r="AC8" t="n">
-        <v>135.3688295918028</v>
+        <v>179.2970911893179</v>
       </c>
       <c r="AD8" t="n">
-        <v>137.4082750989585</v>
+        <v>64.88793302411449</v>
       </c>
       <c r="AE8" t="n">
-        <v>68.91863153883064</v>
+        <v>31.70266190683364</v>
       </c>
       <c r="AF8" t="n">
-        <v>172.2262203912184</v>
+        <v>110.3163242971497</v>
       </c>
       <c r="AG8" t="n">
-        <v>125.6418057018198</v>
+        <v>57.04938244367104</v>
       </c>
       <c r="AH8" t="n">
-        <v>56.36914153018711</v>
+        <v>110.0268951856328</v>
       </c>
       <c r="AI8" t="n">
-        <v>69.26989585599301</v>
+        <v>98.94940572826462</v>
       </c>
       <c r="AJ8" t="n">
-        <v>42.80635550872927</v>
+        <v>56.92929207935323</v>
       </c>
       <c r="AK8" t="n">
-        <v>96.52638801736927</v>
+        <v>145.0901820089821</v>
       </c>
       <c r="AL8" t="n">
-        <v>45.90086057036959</v>
+        <v>90.60782242390047</v>
       </c>
       <c r="AM8" t="n">
-        <v>41.62024795182646</v>
+        <v>34.85153111324916</v>
       </c>
       <c r="AN8" t="n">
-        <v>43.52096480889888</v>
+        <v>23.25703887416252</v>
       </c>
       <c r="AO8" t="n">
-        <v>16.77206633758349</v>
+        <v>47.11608814981402</v>
       </c>
       <c r="AP8" t="n">
-        <v>25.02498347229898</v>
+        <v>13.24659999384471</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29.63108676459677</v>
+        <v>12.20786589942022</v>
       </c>
       <c r="AR8" t="n">
-        <v>69.6981925785478</v>
+        <v>82.29553074517774</v>
       </c>
       <c r="AS8" t="n">
-        <v>19.27776900722957</v>
+        <v>43.36413858345384</v>
       </c>
       <c r="AT8" t="n">
-        <v>19.93414578754394</v>
+        <v>27.75027828776114</v>
       </c>
       <c r="AU8" t="n">
-        <v>26.46076837377783</v>
+        <v>28.75347355093619</v>
       </c>
       <c r="AV8" t="n">
-        <v>17.94118176183316</v>
+        <v>26.52900992878191</v>
       </c>
       <c r="AW8" t="n">
-        <v>8.55156169136335</v>
+        <v>22.25607907454389</v>
       </c>
       <c r="AX8" t="n">
-        <v>10.98158731406636</v>
+        <v>10.80919975263087</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>3.764152131496101</v>
+        <v>13.66518111762923</v>
       </c>
       <c r="D9" t="n">
-        <v>3.660683290118885</v>
+        <v>6.954278357413012</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>9.755978195328231</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1660017537274208</v>
+        <v>1.8431121045894</v>
       </c>
       <c r="H9" t="n">
-        <v>2.264886855712656</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.328641038024867</v>
+        <v>9.20679347769005</v>
       </c>
       <c r="J9" t="n">
-        <v>12.13546469093252</v>
+        <v>4.081203005033577</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6684720093377031</v>
+        <v>3.338046938243802</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>4.166425641488797</v>
       </c>
       <c r="M9" t="n">
-        <v>4.09882026941121</v>
+        <v>3.146945685557994</v>
       </c>
       <c r="N9" t="n">
-        <v>6.039316916317029</v>
+        <v>7.909439428756545</v>
       </c>
       <c r="O9" t="n">
-        <v>5.25368322363365</v>
+        <v>4.318473545065579</v>
       </c>
       <c r="P9" t="n">
-        <v>3.167942729324599</v>
+        <v>5.57248812993271</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.472446882512819</v>
+        <v>4.843934339571705</v>
       </c>
       <c r="R9" t="n">
-        <v>2.686607575588395</v>
+        <v>2.658863610576713</v>
       </c>
       <c r="S9" t="n">
-        <v>8.616269510747934</v>
+        <v>4.200720137877133</v>
       </c>
       <c r="T9" t="n">
-        <v>3.577471705537548</v>
+        <v>2.178603806847891</v>
       </c>
       <c r="U9" t="n">
-        <v>9.23093541079079</v>
+        <v>3.187885062244153</v>
       </c>
       <c r="V9" t="n">
-        <v>3.900039321109198</v>
+        <v>2.996283127715194</v>
       </c>
       <c r="W9" t="n">
-        <v>10.91897162934388</v>
+        <v>2.155779632758443</v>
       </c>
       <c r="X9" t="n">
-        <v>3.253618214509194</v>
+        <v>3.537923235459624</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.124146996036949</v>
+        <v>3.629686570726224</v>
       </c>
       <c r="Z9" t="n">
-        <v>10.31011710659832</v>
+        <v>4.032934024032962</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.819945088006385</v>
+        <v>1.660936188603483</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.538652236798008</v>
+        <v>4.661124385051486</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.15649464620293</v>
+        <v>5.347861720936807</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.480075253323257</v>
+        <v>5.646552201553964</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.528868415782861</v>
+        <v>6.730348434097228</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.261259120354782</v>
+        <v>5.696331366973275</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.66383864499149</v>
+        <v>5.44842072409323</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.629386522028745</v>
+        <v>3.426267708081822</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.979122059656945</v>
+        <v>9.119639841472965</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.129529836231999</v>
+        <v>5.36277583353621</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.223157904724654</v>
+        <v>2.339036006432339</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.905112460837347</v>
+        <v>9.32055502563874</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.732536389945337</v>
+        <v>3.455554052977025</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.016598648082983</v>
+        <v>5.500874404605442</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.959542252970309</v>
+        <v>3.380405478825811</v>
       </c>
       <c r="AP9" t="n">
-        <v>4.921097493791836</v>
+        <v>7.565065610129581</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4.992195000626308</v>
+        <v>5.020241578899197</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.038208550635788</v>
+        <v>4.068261546293875</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.622471489592239</v>
+        <v>2.890940916245791</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.126880813370184</v>
+        <v>3.762963818240455</v>
       </c>
       <c r="AU9" t="n">
-        <v>4.653717815532285</v>
+        <v>2.654956634252884</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.663084096723128</v>
+        <v>5.345214017396251</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.65779632428137</v>
+        <v>2.940524111449513</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.908419841960861</v>
+        <v>2.900180176092443</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2.51485819796396</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>43.11278552144543</v>
       </c>
       <c r="E10" t="n">
-        <v>25.6054648578852</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>11.28102301513142</v>
+        <v>11.22695024673874</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>112.6070955806987</v>
       </c>
       <c r="H10" t="n">
-        <v>21.91597587688577</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>147.8332094916564</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>32.44196984134457</v>
+        <v>24.6585171060823</v>
       </c>
       <c r="K10" t="n">
-        <v>20.14430505172045</v>
+        <v>17.01735462098119</v>
       </c>
       <c r="L10" t="n">
-        <v>21.14263986144549</v>
+        <v>484.0725393279803</v>
       </c>
       <c r="M10" t="n">
-        <v>108.6473322485419</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>198.4333950684732</v>
+        <v>23.23684226570909</v>
       </c>
       <c r="O10" t="n">
-        <v>81.5942394193989</v>
+        <v>141.5836395492088</v>
       </c>
       <c r="P10" t="n">
-        <v>1.083493149651986</v>
+        <v>25.21592474669382</v>
       </c>
       <c r="Q10" t="n">
-        <v>34.46110290582764</v>
+        <v>44.76141274752538</v>
       </c>
       <c r="R10" t="n">
-        <v>68.42116479960764</v>
+        <v>22.05755019909476</v>
       </c>
       <c r="S10" t="n">
-        <v>136.0786349961616</v>
+        <v>119.3319102564749</v>
       </c>
       <c r="T10" t="n">
-        <v>278.754161500346</v>
+        <v>65.2122121201529</v>
       </c>
       <c r="U10" t="n">
-        <v>123.6358473144675</v>
+        <v>70.84827157108322</v>
       </c>
       <c r="V10" t="n">
-        <v>35.53837608021086</v>
+        <v>56.61813980157178</v>
       </c>
       <c r="W10" t="n">
-        <v>23.99274235753539</v>
+        <v>48.95778855012979</v>
       </c>
       <c r="X10" t="n">
-        <v>72.31332222342729</v>
+        <v>58.53351370289796</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.58618194653809</v>
+        <v>44.43476637140969</v>
       </c>
       <c r="Z10" t="n">
-        <v>53.06063617021801</v>
+        <v>51.12449636870148</v>
       </c>
       <c r="AA10" t="n">
-        <v>61.24952281112537</v>
+        <v>35.47496145740725</v>
       </c>
       <c r="AB10" t="n">
-        <v>47.52779357538685</v>
+        <v>153.3688741360984</v>
       </c>
       <c r="AC10" t="n">
-        <v>53.98728868689409</v>
+        <v>38.33761124938674</v>
       </c>
       <c r="AD10" t="n">
-        <v>91.89551824091208</v>
+        <v>81.73010546078945</v>
       </c>
       <c r="AE10" t="n">
-        <v>54.53618679719089</v>
+        <v>48.15716909318328</v>
       </c>
       <c r="AF10" t="n">
-        <v>54.14170341015749</v>
+        <v>44.1662710931131</v>
       </c>
       <c r="AG10" t="n">
-        <v>50.70320281177537</v>
+        <v>25.62220344143418</v>
       </c>
       <c r="AH10" t="n">
-        <v>60.02978254022006</v>
+        <v>90.76958731418347</v>
       </c>
       <c r="AI10" t="n">
-        <v>54.98994161960895</v>
+        <v>63.22732963141681</v>
       </c>
       <c r="AJ10" t="n">
-        <v>25.2049747113355</v>
+        <v>36.62163250028438</v>
       </c>
       <c r="AK10" t="n">
-        <v>28.65824628562698</v>
+        <v>33.48535962096607</v>
       </c>
       <c r="AL10" t="n">
-        <v>8.064166301248076</v>
+        <v>40.88440196399999</v>
       </c>
       <c r="AM10" t="n">
-        <v>27.0263782900874</v>
+        <v>19.37565059925371</v>
       </c>
       <c r="AN10" t="n">
-        <v>19.81097024190738</v>
+        <v>16.27828268908174</v>
       </c>
       <c r="AO10" t="n">
-        <v>26.64935093607205</v>
+        <v>28.82574683970707</v>
       </c>
       <c r="AP10" t="n">
-        <v>18.91136488726385</v>
+        <v>14.40725556304363</v>
       </c>
       <c r="AQ10" t="n">
-        <v>14.07513289050247</v>
+        <v>12.95996410902426</v>
       </c>
       <c r="AR10" t="n">
-        <v>16.96784516939903</v>
+        <v>27.84221764212338</v>
       </c>
       <c r="AS10" t="n">
-        <v>5.569377208300549</v>
+        <v>6.094652239534062</v>
       </c>
       <c r="AT10" t="n">
-        <v>10.57019623161741</v>
+        <v>11.31394955530987</v>
       </c>
       <c r="AU10" t="n">
-        <v>11.38933055047128</v>
+        <v>19.09449155895553</v>
       </c>
       <c r="AV10" t="n">
-        <v>10.67095045728723</v>
+        <v>23.65571188586918</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.486257850483851</v>
+        <v>24.6163639478483</v>
       </c>
       <c r="AX10" t="n">
-        <v>18.82244114076735</v>
+        <v>8.815931536513638</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>34.05248195597623</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>79.56583529110861</v>
       </c>
       <c r="E11" t="n">
-        <v>14.41700509642628</v>
+        <v>70.03048417618918</v>
       </c>
       <c r="F11" t="n">
-        <v>29.17522021651045</v>
+        <v>20.82407391636498</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>15.10008756295892</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.898120748802476</v>
+        <v>18.44663655197212</v>
       </c>
       <c r="J11" t="n">
-        <v>141.6400485877563</v>
+        <v>85.01508700085009</v>
       </c>
       <c r="K11" t="n">
-        <v>17.83360474562648</v>
+        <v>97.4496305718116</v>
       </c>
       <c r="L11" t="n">
-        <v>43.93014002410422</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>186.3490694155329</v>
+        <v>53.50101746687038</v>
       </c>
       <c r="N11" t="n">
-        <v>234.4764422708318</v>
+        <v>25.43955943789457</v>
       </c>
       <c r="O11" t="n">
-        <v>31.68502268616833</v>
+        <v>84.02780044938632</v>
       </c>
       <c r="P11" t="n">
-        <v>36.14163063419656</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>73.33153353042711</v>
+        <v>52.56784619765846</v>
       </c>
       <c r="R11" t="n">
-        <v>21.60908821769158</v>
+        <v>60.43370705301848</v>
       </c>
       <c r="S11" t="n">
-        <v>36.12710351806432</v>
+        <v>43.78038764417741</v>
       </c>
       <c r="T11" t="n">
-        <v>21.07732202967028</v>
+        <v>1.168471442234576</v>
       </c>
       <c r="U11" t="n">
-        <v>40.87038335393069</v>
+        <v>33.14425015825778</v>
       </c>
       <c r="V11" t="n">
-        <v>53.99319013562955</v>
+        <v>198.1475173219284</v>
       </c>
       <c r="W11" t="n">
-        <v>67.53070814550986</v>
+        <v>43.39469760423871</v>
       </c>
       <c r="X11" t="n">
-        <v>34.18130239856237</v>
+        <v>5.864893910750613</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.20528983468222</v>
+        <v>121.6093898264587</v>
       </c>
       <c r="Z11" t="n">
-        <v>31.24028035642578</v>
+        <v>43.56131445660626</v>
       </c>
       <c r="AA11" t="n">
-        <v>48.01793335075248</v>
+        <v>30.77032823784614</v>
       </c>
       <c r="AB11" t="n">
-        <v>16.09295732357639</v>
+        <v>23.43436180565381</v>
       </c>
       <c r="AC11" t="n">
-        <v>27.23423281783161</v>
+        <v>66.14821472961536</v>
       </c>
       <c r="AD11" t="n">
-        <v>43.78562275694179</v>
+        <v>16.81760769295288</v>
       </c>
       <c r="AE11" t="n">
-        <v>20.75803656060899</v>
+        <v>14.5444363383974</v>
       </c>
       <c r="AF11" t="n">
-        <v>96.77204023923578</v>
+        <v>41.04679906029057</v>
       </c>
       <c r="AG11" t="n">
-        <v>27.30215655590865</v>
+        <v>41.6304452669437</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.993149883599612</v>
+        <v>39.86938721068871</v>
       </c>
       <c r="AI11" t="n">
-        <v>20.45333855933448</v>
+        <v>29.93689627260407</v>
       </c>
       <c r="AJ11" t="n">
-        <v>38.09096150416294</v>
+        <v>44.48920430252365</v>
       </c>
       <c r="AK11" t="n">
-        <v>17.50547099869183</v>
+        <v>43.7618803876377</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>15.92407868519027</v>
       </c>
       <c r="AM11" t="n">
-        <v>26.82350280673876</v>
+        <v>34.39120712801528</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.76454961823581</v>
+        <v>15.75270204880592</v>
       </c>
       <c r="AO11" t="n">
-        <v>36.3987025905861</v>
+        <v>14.05887327444762</v>
       </c>
       <c r="AP11" t="n">
-        <v>13.18440300362987</v>
+        <v>12.51333916641312</v>
       </c>
       <c r="AQ11" t="n">
-        <v>48.76843880542175</v>
+        <v>46.07272616210734</v>
       </c>
       <c r="AR11" t="n">
-        <v>9.861189542071447</v>
+        <v>26.99520253927655</v>
       </c>
       <c r="AS11" t="n">
-        <v>26.25805224123487</v>
+        <v>29.32725804852252</v>
       </c>
       <c r="AT11" t="n">
-        <v>23.61757859576559</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>28.34114118984969</v>
+        <v>22.37506065980171</v>
       </c>
       <c r="AV11" t="n">
-        <v>6.119041308143939</v>
+        <v>26.99391260399079</v>
       </c>
       <c r="AW11" t="n">
-        <v>31.99007595431504</v>
+        <v>11.54435839497418</v>
       </c>
       <c r="AX11" t="n">
-        <v>27.96641494795975</v>
+        <v>32.13786828805945</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2.691130713073668</v>
+        <v>2.537960214790294</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>5.63784627555834</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>13.89278496307942</v>
       </c>
       <c r="F12" t="n">
-        <v>7.69364162370139</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>27.76473087658912</v>
       </c>
       <c r="H12" t="n">
-        <v>3.559202239804961</v>
+        <v>17.80044167663651</v>
       </c>
       <c r="I12" t="n">
-        <v>33.47976859706719</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>16.12937198575012</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>27.48415502873047</v>
+        <v>3.590487247974928</v>
       </c>
       <c r="M12" t="n">
-        <v>17.87525916561001</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>28.61531089607464</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>43.06321295544238</v>
+        <v>8.240462066016777</v>
       </c>
       <c r="P12" t="n">
-        <v>17.14657744293773</v>
+        <v>17.70626263613989</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.43780901299761</v>
+        <v>14.41958324935231</v>
       </c>
       <c r="R12" t="n">
-        <v>47.026514013723</v>
+        <v>43.18181742882328</v>
       </c>
       <c r="S12" t="n">
-        <v>6.520616035191341</v>
+        <v>7.401129207479292</v>
       </c>
       <c r="T12" t="n">
-        <v>14.97307173041939</v>
+        <v>23.97524968402864</v>
       </c>
       <c r="U12" t="n">
-        <v>20.22255473046964</v>
+        <v>15.73282964909759</v>
       </c>
       <c r="V12" t="n">
-        <v>7.309711236115606</v>
+        <v>19.63331382613903</v>
       </c>
       <c r="W12" t="n">
-        <v>24.07240810381656</v>
+        <v>16.4019899419644</v>
       </c>
       <c r="X12" t="n">
-        <v>19.31311641118739</v>
+        <v>1.007431423962272</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.573248551183887</v>
+        <v>32.41893657160573</v>
       </c>
       <c r="Z12" t="n">
-        <v>16.50444520236441</v>
+        <v>23.31966848731562</v>
       </c>
       <c r="AA12" t="n">
-        <v>9.436544343162687</v>
+        <v>30.89827592588892</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.48163181438167</v>
+        <v>4.632332801562082</v>
       </c>
       <c r="AC12" t="n">
-        <v>16.19457139598298</v>
+        <v>14.20923544611957</v>
       </c>
       <c r="AD12" t="n">
-        <v>19.92201942307615</v>
+        <v>9.742928385675084</v>
       </c>
       <c r="AE12" t="n">
-        <v>29.57162742663143</v>
+        <v>11.80536501228039</v>
       </c>
       <c r="AF12" t="n">
-        <v>16.51887305176657</v>
+        <v>11.50970598932556</v>
       </c>
       <c r="AG12" t="n">
-        <v>22.87735846412531</v>
+        <v>8.429421957176606</v>
       </c>
       <c r="AH12" t="n">
-        <v>11.9355740097837</v>
+        <v>23.13325455428559</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.98959579520798</v>
+        <v>15.68260133857317</v>
       </c>
       <c r="AJ12" t="n">
-        <v>24.79275674931858</v>
+        <v>18.18947702623058</v>
       </c>
       <c r="AK12" t="n">
-        <v>10.53586927581917</v>
+        <v>28.74553846543089</v>
       </c>
       <c r="AL12" t="n">
-        <v>16.40768136698997</v>
+        <v>10.23983010805899</v>
       </c>
       <c r="AM12" t="n">
-        <v>4.744118826195512</v>
+        <v>6.357382720154355</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.664461784811976</v>
+        <v>12.39294984121605</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.62081094757726</v>
+        <v>6.797763247287526</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.344744919081434</v>
+        <v>3.962660367950033</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3.316228829033852</v>
+        <v>1.041673340675928</v>
       </c>
       <c r="AR12" t="n">
-        <v>3.374339753936089</v>
+        <v>2.786045034045879</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.88060990161822</v>
+        <v>0.9537053347563387</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.730646732073744</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>5.725284573170567</v>
+        <v>1.491674930806444</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.957853410534095</v>
+        <v>5.269163291193016</v>
       </c>
       <c r="AW12" t="n">
-        <v>0</v>
+        <v>2.556717014599548</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.540331360531335</v>
+        <v>4.611605453666932</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>76.66827109667857</v>
+        <v>5.97478371587592</v>
       </c>
       <c r="D13" t="n">
-        <v>9.664457006991997</v>
+        <v>21.13136367489289</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>64.24764903072126</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>13.66483537931621</v>
       </c>
       <c r="H13" t="n">
-        <v>16.65497088351425</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>117.1100882150707</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>113.3993444841874</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>27.13701928504905</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>17.90756785989124</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>15.21145002274066</v>
       </c>
       <c r="O13" t="n">
-        <v>40.01799276398516</v>
+        <v>3.720438846155556</v>
       </c>
       <c r="P13" t="n">
-        <v>36.19127595380882</v>
+        <v>20.55540966360419</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.64382559217453</v>
+        <v>41.58270097334943</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>16.09774521746425</v>
       </c>
       <c r="S13" t="n">
-        <v>46.05270201257934</v>
+        <v>110.481399720065</v>
       </c>
       <c r="T13" t="n">
-        <v>4.721954755305929</v>
+        <v>62.45405407837018</v>
       </c>
       <c r="U13" t="n">
-        <v>23.99018670491077</v>
+        <v>15.94781077618705</v>
       </c>
       <c r="V13" t="n">
-        <v>50.25498742705347</v>
+        <v>21.68660794494962</v>
       </c>
       <c r="W13" t="n">
-        <v>2.858501352903251</v>
+        <v>8.416938681622774</v>
       </c>
       <c r="X13" t="n">
-        <v>24.20002835064026</v>
+        <v>29.29730954941815</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.07873755519752</v>
+        <v>13.56762417686635</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.56698664805383</v>
+        <v>32.03395606036926</v>
       </c>
       <c r="AA13" t="n">
-        <v>9.51084952396997</v>
+        <v>17.99709209800472</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.522611449484348</v>
+        <v>10.03215375503437</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.78561015329528</v>
+        <v>16.58609656103449</v>
       </c>
       <c r="AD13" t="n">
-        <v>15.69835529044855</v>
+        <v>7.09618376072922</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>0.1071394496210154</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.137472273048081</v>
+        <v>6.244311834989084</v>
       </c>
       <c r="AG13" t="n">
-        <v>30.62890983579049</v>
+        <v>15.5264154369921</v>
       </c>
       <c r="AH13" t="n">
-        <v>3.442440754488664</v>
+        <v>17.7799293293481</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.6660507076657101</v>
+        <v>4.28999810025945</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.460963364157426</v>
+        <v>0.854490942213757</v>
       </c>
       <c r="AK13" t="n">
-        <v>10.1750154840498</v>
+        <v>10.86711541418563</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.7632266274946917</v>
+        <v>8.724562102121189</v>
       </c>
       <c r="AM13" t="n">
-        <v>2.232147597231725</v>
+        <v>6.58304588987605</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.992482960111371</v>
+        <v>4.651178634294398</v>
       </c>
       <c r="AO13" t="n">
-        <v>10.52303957676601</v>
+        <v>4.415666603402999</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.187134412533605</v>
+        <v>1.029425667838895</v>
       </c>
       <c r="AQ13" t="n">
-        <v>8.290937193154605</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>5.180466920505507</v>
       </c>
       <c r="AS13" t="n">
-        <v>8.846894964214234</v>
+        <v>1.650127207118376</v>
       </c>
       <c r="AT13" t="n">
-        <v>13.46823506887105</v>
+        <v>22.6361379044455</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.535942353374173</v>
+        <v>6.285571818382808</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>11.39524108667272</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.413612341508171</v>
+        <v>1.657180931524053</v>
       </c>
       <c r="AX13" t="n">
-        <v>2.552992112847603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>10.14405730027735</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>27.11415027959091</v>
       </c>
       <c r="F14" t="n">
-        <v>64.35675773497979</v>
+        <v>54.85959910636716</v>
       </c>
       <c r="G14" t="n">
-        <v>13.96603488450957</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>40.43673985807086</v>
+        <v>34.35124669973569</v>
       </c>
       <c r="I14" t="n">
-        <v>17.37891586226964</v>
+        <v>91.71869760591564</v>
       </c>
       <c r="J14" t="n">
-        <v>39.19182083037649</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>27.24883906933766</v>
+        <v>15.71158226789683</v>
       </c>
       <c r="L14" t="n">
-        <v>32.34480931396359</v>
+        <v>53.59125023544389</v>
       </c>
       <c r="M14" t="n">
-        <v>26.04199087437032</v>
+        <v>203.9970279674802</v>
       </c>
       <c r="N14" t="n">
-        <v>58.88178513968057</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>57.34722765163746</v>
+        <v>49.74117644806189</v>
       </c>
       <c r="P14" t="n">
-        <v>149.4855321045446</v>
+        <v>31.67425550310288</v>
       </c>
       <c r="Q14" t="n">
-        <v>75.29256358070946</v>
+        <v>26.29649984441127</v>
       </c>
       <c r="R14" t="n">
-        <v>161.4771550507514</v>
+        <v>51.76013671054968</v>
       </c>
       <c r="S14" t="n">
-        <v>74.06045728560764</v>
+        <v>38.60279328276053</v>
       </c>
       <c r="T14" t="n">
-        <v>35.97451267896641</v>
+        <v>45.09372736474211</v>
       </c>
       <c r="U14" t="n">
-        <v>287.3415621196801</v>
+        <v>61.98837835562986</v>
       </c>
       <c r="V14" t="n">
-        <v>49.78150814423697</v>
+        <v>60.87616196032966</v>
       </c>
       <c r="W14" t="n">
-        <v>117.9419308539033</v>
+        <v>79.68822377049079</v>
       </c>
       <c r="X14" t="n">
-        <v>9.30332021499428</v>
+        <v>115.075435992156</v>
       </c>
       <c r="Y14" t="n">
-        <v>40.13888062384788</v>
+        <v>44.34465205276934</v>
       </c>
       <c r="Z14" t="n">
-        <v>118.2105107120245</v>
+        <v>60.8328547557152</v>
       </c>
       <c r="AA14" t="n">
-        <v>78.03946914183034</v>
+        <v>115.0330861760147</v>
       </c>
       <c r="AB14" t="n">
-        <v>64.23809868403886</v>
+        <v>137.7248094695784</v>
       </c>
       <c r="AC14" t="n">
-        <v>101.6188642698172</v>
+        <v>15.65538657438037</v>
       </c>
       <c r="AD14" t="n">
-        <v>63.63658272031972</v>
+        <v>100.8682544843958</v>
       </c>
       <c r="AE14" t="n">
-        <v>132.8131542372383</v>
+        <v>124.6393736394334</v>
       </c>
       <c r="AF14" t="n">
-        <v>117.4764364765411</v>
+        <v>123.5577773541468</v>
       </c>
       <c r="AG14" t="n">
-        <v>144.0678187174089</v>
+        <v>47.52814202688662</v>
       </c>
       <c r="AH14" t="n">
-        <v>108.1629533357169</v>
+        <v>80.50665856199265</v>
       </c>
       <c r="AI14" t="n">
-        <v>133.4341891756388</v>
+        <v>60.08235512391263</v>
       </c>
       <c r="AJ14" t="n">
-        <v>204.2305569503058</v>
+        <v>18.33604924232393</v>
       </c>
       <c r="AK14" t="n">
-        <v>6.408466785532147</v>
+        <v>127.075125671082</v>
       </c>
       <c r="AL14" t="n">
-        <v>31.44691474659577</v>
+        <v>134.5588389267625</v>
       </c>
       <c r="AM14" t="n">
-        <v>70.02652536494335</v>
+        <v>28.8262922184749</v>
       </c>
       <c r="AN14" t="n">
-        <v>42.9773456554267</v>
+        <v>22.50394070693316</v>
       </c>
       <c r="AO14" t="n">
-        <v>29.05850407426738</v>
+        <v>32.13900861769625</v>
       </c>
       <c r="AP14" t="n">
-        <v>42.77578509986997</v>
+        <v>22.56556341498169</v>
       </c>
       <c r="AQ14" t="n">
-        <v>36.50032001841609</v>
+        <v>24.1467807428607</v>
       </c>
       <c r="AR14" t="n">
-        <v>24.10636445122305</v>
+        <v>38.9110195609228</v>
       </c>
       <c r="AS14" t="n">
-        <v>40.26439944531099</v>
+        <v>24.39878646076183</v>
       </c>
       <c r="AT14" t="n">
-        <v>22.15851598061666</v>
+        <v>55.24130249247617</v>
       </c>
       <c r="AU14" t="n">
-        <v>20.83399533857066</v>
+        <v>19.68136447230139</v>
       </c>
       <c r="AV14" t="n">
-        <v>12.03372496502428</v>
+        <v>19.904266262676</v>
       </c>
       <c r="AW14" t="n">
-        <v>20.04632997089455</v>
+        <v>23.90750929677013</v>
       </c>
       <c r="AX14" t="n">
-        <v>24.52475105908859</v>
+        <v>15.71237646360619</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3.512317097039464</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4.784455257062094</v>
       </c>
       <c r="E15" t="n">
-        <v>3.660670944911881</v>
+        <v>2.267364187265015</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>7.578234505126336</v>
       </c>
       <c r="G15" t="n">
-        <v>1.937115732841726</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>3.297490786528308</v>
+        <v>3.302420037486053</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8771974782317795</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>4.270703455180009</v>
+        <v>3.166627573585663</v>
       </c>
       <c r="K15" t="n">
-        <v>2.763003950088885</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5739074473905046</v>
+        <v>11.25685137523528</v>
       </c>
       <c r="M15" t="n">
-        <v>4.548804067600534</v>
+        <v>2.743004202425633</v>
       </c>
       <c r="N15" t="n">
-        <v>9.930588020331015</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2.378045940849137</v>
+        <v>4.860263126463865</v>
       </c>
       <c r="P15" t="n">
-        <v>4.233230928005248</v>
+        <v>4.303356239226654</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.40151494768536</v>
+        <v>3.114738741951904</v>
       </c>
       <c r="R15" t="n">
-        <v>1.979621694014357</v>
+        <v>4.598278721283872</v>
       </c>
       <c r="S15" t="n">
-        <v>6.705814942945931</v>
+        <v>5.397701414322446</v>
       </c>
       <c r="T15" t="n">
-        <v>4.893030376362037</v>
+        <v>0.1999501581861329</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08164928371606</v>
+        <v>2.031479618766671</v>
       </c>
       <c r="V15" t="n">
-        <v>4.874292153320349</v>
+        <v>6.840745471437762</v>
       </c>
       <c r="W15" t="n">
-        <v>4.460508404890062</v>
+        <v>7.131870279075786</v>
       </c>
       <c r="X15" t="n">
-        <v>5.51271486724007</v>
+        <v>4.73431924552979</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.576923227742681</v>
+        <v>11.47510893282191</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.152301102375934</v>
+        <v>3.437966968265355</v>
       </c>
       <c r="AA15" t="n">
-        <v>4.645116372670816</v>
+        <v>3.343065547279676</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.199448090588765</v>
+        <v>4.069880124172738</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.491100566884941</v>
+        <v>1.347135635981031</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.383035916947252</v>
+        <v>6.134850552551424</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.168900266851538</v>
+        <v>5.692891929790949</v>
       </c>
       <c r="AF15" t="n">
-        <v>6.317445357728254</v>
+        <v>8.248093077342464</v>
       </c>
       <c r="AG15" t="n">
-        <v>7.56945468277006</v>
+        <v>7.276050927371826</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.516049172204234</v>
+        <v>7.08551849333804</v>
       </c>
       <c r="AI15" t="n">
-        <v>6.699413983745679</v>
+        <v>6.279005896112889</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6.983845644109927</v>
+        <v>3.765240483352615</v>
       </c>
       <c r="AK15" t="n">
-        <v>4.456240288096278</v>
+        <v>5.238838749253985</v>
       </c>
       <c r="AL15" t="n">
-        <v>6.691607132660342</v>
+        <v>5.08494968873746</v>
       </c>
       <c r="AM15" t="n">
-        <v>7.275646891047828</v>
+        <v>4.367111758769919</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.089836270695166</v>
+        <v>4.794733647076568</v>
       </c>
       <c r="AO15" t="n">
-        <v>3.181351340800158</v>
+        <v>6.957703251425889</v>
       </c>
       <c r="AP15" t="n">
-        <v>3.484079349599102</v>
+        <v>3.67895228808282</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4.892863559735113</v>
+        <v>4.28843175674672</v>
       </c>
       <c r="AR15" t="n">
-        <v>4.442117427162169</v>
+        <v>4.584553586761192</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.89280702039113</v>
+        <v>4.33438877984241</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.635396938638118</v>
+        <v>6.257541305336071</v>
       </c>
       <c r="AU15" t="n">
-        <v>6.587010647968452</v>
+        <v>3.263134667689788</v>
       </c>
       <c r="AV15" t="n">
-        <v>3.653396833301093</v>
+        <v>5.121825311853347</v>
       </c>
       <c r="AW15" t="n">
-        <v>7.274533909645209</v>
+        <v>2.065506776111786</v>
       </c>
       <c r="AX15" t="n">
-        <v>2.301324671730005</v>
+        <v>3.54136627783692</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>108.2902977488775</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>12.26380035626387</v>
       </c>
       <c r="E16" t="n">
-        <v>17.33303305680377</v>
+        <v>26.84550863113768</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>55.56190917619281</v>
       </c>
       <c r="G16" t="n">
-        <v>10.49914217910076</v>
+        <v>63.44053860079839</v>
       </c>
       <c r="H16" t="n">
-        <v>2.510750000403842</v>
+        <v>116.5660508957887</v>
       </c>
       <c r="I16" t="n">
-        <v>37.2315522660261</v>
+        <v>7.598079327979171</v>
       </c>
       <c r="J16" t="n">
-        <v>26.80134699261008</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>41.54036887128071</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>9.082129887258075</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>46.99942498870748</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>24.91673563717743</v>
+        <v>58.35033525290258</v>
       </c>
       <c r="O16" t="n">
-        <v>256.5311117740071</v>
+        <v>67.86386250177087</v>
       </c>
       <c r="P16" t="n">
-        <v>66.35663892713484</v>
+        <v>68.63862705320292</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.04241407604616</v>
+        <v>21.87965339016453</v>
       </c>
       <c r="R16" t="n">
-        <v>17.18971144929241</v>
+        <v>142.6491625208445</v>
       </c>
       <c r="S16" t="n">
-        <v>188.0903856868937</v>
+        <v>71.2903411870376</v>
       </c>
       <c r="T16" t="n">
-        <v>34.7186862381519</v>
+        <v>98.41855198481079</v>
       </c>
       <c r="U16" t="n">
-        <v>64.33810866928812</v>
+        <v>51.91302444211169</v>
       </c>
       <c r="V16" t="n">
-        <v>140.6638358261455</v>
+        <v>90.07160534040833</v>
       </c>
       <c r="W16" t="n">
-        <v>61.70598363760768</v>
+        <v>71.67624348326706</v>
       </c>
       <c r="X16" t="n">
-        <v>47.84488808576601</v>
+        <v>113.4156657643302</v>
       </c>
       <c r="Y16" t="n">
-        <v>68.46474907222837</v>
+        <v>70.22314123295192</v>
       </c>
       <c r="Z16" t="n">
-        <v>35.82577887539213</v>
+        <v>66.96306159327158</v>
       </c>
       <c r="AA16" t="n">
-        <v>84.95994333029748</v>
+        <v>85.16387346433169</v>
       </c>
       <c r="AB16" t="n">
-        <v>92.22602218964288</v>
+        <v>22.2787634643336</v>
       </c>
       <c r="AC16" t="n">
-        <v>75.30537575620684</v>
+        <v>108.4613679643153</v>
       </c>
       <c r="AD16" t="n">
-        <v>63.27979094857563</v>
+        <v>7.681787498421237</v>
       </c>
       <c r="AE16" t="n">
-        <v>44.79516674378179</v>
+        <v>40.38010959650884</v>
       </c>
       <c r="AF16" t="n">
-        <v>94.54443895317387</v>
+        <v>46.39928167562056</v>
       </c>
       <c r="AG16" t="n">
-        <v>29.76703078535872</v>
+        <v>80.25001877313123</v>
       </c>
       <c r="AH16" t="n">
-        <v>78.32686708768382</v>
+        <v>37.18857460017526</v>
       </c>
       <c r="AI16" t="n">
-        <v>78.26128293538883</v>
+        <v>17.29521082218706</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23.22903740020937</v>
+        <v>85.28443649552115</v>
       </c>
       <c r="AK16" t="n">
-        <v>74.83949632806507</v>
+        <v>41.36744332143331</v>
       </c>
       <c r="AL16" t="n">
-        <v>24.15959463640909</v>
+        <v>57.87147288760427</v>
       </c>
       <c r="AM16" t="n">
-        <v>57.17632245361378</v>
+        <v>22.38526091507504</v>
       </c>
       <c r="AN16" t="n">
-        <v>16.05955631669918</v>
+        <v>28.37131873348993</v>
       </c>
       <c r="AO16" t="n">
-        <v>15.58659794036853</v>
+        <v>1.601249533317572</v>
       </c>
       <c r="AP16" t="n">
-        <v>8.425466037984814</v>
+        <v>16.56896814636315</v>
       </c>
       <c r="AQ16" t="n">
-        <v>17.22029679898782</v>
+        <v>24.59775853109584</v>
       </c>
       <c r="AR16" t="n">
-        <v>32.14312279193167</v>
+        <v>10.60618036942403</v>
       </c>
       <c r="AS16" t="n">
-        <v>21.58757046137377</v>
+        <v>14.28981006210555</v>
       </c>
       <c r="AT16" t="n">
-        <v>13.91920917948556</v>
+        <v>24.1044787205339</v>
       </c>
       <c r="AU16" t="n">
-        <v>14.23429878634026</v>
+        <v>36.10298161447326</v>
       </c>
       <c r="AV16" t="n">
-        <v>17.66497846934231</v>
+        <v>19.90984755068882</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.690645036785214</v>
+        <v>36.22783330795372</v>
       </c>
       <c r="AX16" t="n">
-        <v>10.07956825932499</v>
+        <v>13.052998317862</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>22.32825159725482</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>19.17991729511058</v>
+        <v>26.37124318031203</v>
       </c>
       <c r="F17" t="n">
-        <v>14.7658880340247</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>67.3775143156722</v>
+        <v>32.6112610865402</v>
       </c>
       <c r="H17" t="n">
-        <v>4.201518343622357</v>
+        <v>18.93499887811717</v>
       </c>
       <c r="I17" t="n">
-        <v>34.50385966426273</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>24.97807831271319</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>82.62790581865693</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>106.989243469508</v>
+        <v>94.67753252782512</v>
       </c>
       <c r="N17" t="n">
-        <v>61.08049843658699</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>20.30254073742415</v>
+        <v>32.64686252771368</v>
       </c>
       <c r="P17" t="n">
-        <v>20.85455246344018</v>
+        <v>120.6471925578458</v>
       </c>
       <c r="Q17" t="n">
-        <v>34.4944043744913</v>
+        <v>63.25353378986344</v>
       </c>
       <c r="R17" t="n">
-        <v>153.0510682195336</v>
+        <v>22.2251144246508</v>
       </c>
       <c r="S17" t="n">
-        <v>66.21393829531166</v>
+        <v>6.476743645026465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>35.4232388019329</v>
       </c>
       <c r="U17" t="n">
-        <v>104.9910128120891</v>
+        <v>77.89875683173365</v>
       </c>
       <c r="V17" t="n">
-        <v>66.51277960687554</v>
+        <v>66.36902846358163</v>
       </c>
       <c r="W17" t="n">
-        <v>59.68396365951352</v>
+        <v>66.53519950865874</v>
       </c>
       <c r="X17" t="n">
-        <v>48.90776348926913</v>
+        <v>22.04472338621703</v>
       </c>
       <c r="Y17" t="n">
-        <v>12.48101740051735</v>
+        <v>70.35268880433416</v>
       </c>
       <c r="Z17" t="n">
-        <v>14.4592271198024</v>
+        <v>138.5384554455146</v>
       </c>
       <c r="AA17" t="n">
-        <v>16.04455244089586</v>
+        <v>17.58155042130772</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.08657978304849</v>
+        <v>20.91343083332973</v>
       </c>
       <c r="AC17" t="n">
-        <v>26.42247846721778</v>
+        <v>15.78117323805463</v>
       </c>
       <c r="AD17" t="n">
-        <v>56.06248949153828</v>
+        <v>30.31129095090324</v>
       </c>
       <c r="AE17" t="n">
-        <v>43.60277321367452</v>
+        <v>29.65746719279674</v>
       </c>
       <c r="AF17" t="n">
-        <v>27.17385618118699</v>
+        <v>25.22088365202831</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.36720390607483</v>
+        <v>12.69120342739694</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.48851226991055</v>
+        <v>0.7847716322860947</v>
       </c>
       <c r="AI17" t="n">
-        <v>53.79220995877725</v>
+        <v>25.85779527710527</v>
       </c>
       <c r="AJ17" t="n">
-        <v>95.32060410394124</v>
+        <v>46.21942111096605</v>
       </c>
       <c r="AK17" t="n">
-        <v>32.50479856489685</v>
+        <v>14.075208811367</v>
       </c>
       <c r="AL17" t="n">
-        <v>3.657438388162756</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>63.61884256379489</v>
+        <v>8.043879583077825</v>
       </c>
       <c r="AN17" t="n">
-        <v>27.94120310595578</v>
+        <v>33.16403807016875</v>
       </c>
       <c r="AO17" t="n">
-        <v>31.37786711658357</v>
+        <v>29.85407840492002</v>
       </c>
       <c r="AP17" t="n">
-        <v>44.80831880415634</v>
+        <v>17.3370231824155</v>
       </c>
       <c r="AQ17" t="n">
-        <v>4.056663627713054</v>
+        <v>24.22496114373973</v>
       </c>
       <c r="AR17" t="n">
-        <v>23.21359877982729</v>
+        <v>20.93486555557305</v>
       </c>
       <c r="AS17" t="n">
-        <v>20.68347268339645</v>
+        <v>20.01428792224002</v>
       </c>
       <c r="AT17" t="n">
-        <v>16.26746607992406</v>
+        <v>12.92514871527185</v>
       </c>
       <c r="AU17" t="n">
-        <v>40.83715144298147</v>
+        <v>33.3250516270511</v>
       </c>
       <c r="AV17" t="n">
-        <v>18.59083227918852</v>
+        <v>20.32858965671176</v>
       </c>
       <c r="AW17" t="n">
-        <v>10.8116485886883</v>
+        <v>24.33468566053</v>
       </c>
       <c r="AX17" t="n">
-        <v>5.412387578144344</v>
+        <v>41.71581616174094</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>6.777090049121933</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>6.849671008644878</v>
+        <v>1.608730995497207</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6631291660482606</v>
+        <v>0.6231486295668118</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7882439706687201</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>24.03790817812481</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>57.18869482008873</v>
+        <v>16.77356565045721</v>
       </c>
       <c r="K18" t="n">
-        <v>34.8272657383466</v>
+        <v>19.94211110624361</v>
       </c>
       <c r="L18" t="n">
-        <v>7.47975509633213</v>
+        <v>2.117198616936856</v>
       </c>
       <c r="M18" t="n">
-        <v>31.58458594222842</v>
+        <v>30.37299540703956</v>
       </c>
       <c r="N18" t="n">
-        <v>15.51061078215267</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>81.87429551466579</v>
+        <v>38.32872974558887</v>
       </c>
       <c r="P18" t="n">
-        <v>21.82180754409031</v>
+        <v>12.15290872927346</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.69707015727293</v>
+        <v>6.919143519238008</v>
       </c>
       <c r="R18" t="n">
-        <v>6.35115616919715</v>
+        <v>27.01384901713721</v>
       </c>
       <c r="S18" t="n">
-        <v>17.8640883273928</v>
+        <v>8.659069558369159</v>
       </c>
       <c r="T18" t="n">
-        <v>10.00294129096739</v>
+        <v>26.18435425002499</v>
       </c>
       <c r="U18" t="n">
-        <v>18.17991522196958</v>
+        <v>15.57469587182963</v>
       </c>
       <c r="V18" t="n">
-        <v>11.91785284563474</v>
+        <v>25.96142019932929</v>
       </c>
       <c r="W18" t="n">
-        <v>9.429155099179585</v>
+        <v>53.89491967834206</v>
       </c>
       <c r="X18" t="n">
-        <v>18.84172136932122</v>
+        <v>14.07983397530029</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.397720685314081</v>
+        <v>20.79319052984176</v>
       </c>
       <c r="Z18" t="n">
-        <v>37.13686946798436</v>
+        <v>30.5990501796068</v>
       </c>
       <c r="AA18" t="n">
-        <v>14.79212828025024</v>
+        <v>1.779489016804531</v>
       </c>
       <c r="AB18" t="n">
-        <v>14.88771898698545</v>
+        <v>7.582837308196738</v>
       </c>
       <c r="AC18" t="n">
-        <v>44.36933273973996</v>
+        <v>7.750058247726247</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>10.33837428787758</v>
       </c>
       <c r="AE18" t="n">
-        <v>3.179539327564982</v>
+        <v>15.37762709596328</v>
       </c>
       <c r="AF18" t="n">
-        <v>6.317433531832553</v>
+        <v>13.91650063487832</v>
       </c>
       <c r="AG18" t="n">
-        <v>27.24008138808077</v>
+        <v>10.10157992231166</v>
       </c>
       <c r="AH18" t="n">
-        <v>9.10801761507399</v>
+        <v>13.21367093286718</v>
       </c>
       <c r="AI18" t="n">
-        <v>7.26054841533988</v>
+        <v>10.16267754330273</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6.481549047390452</v>
+        <v>11.85417515819561</v>
       </c>
       <c r="AK18" t="n">
-        <v>4.153563492349672</v>
+        <v>7.843148216837216</v>
       </c>
       <c r="AL18" t="n">
-        <v>4.777634157729933</v>
+        <v>8.560826560444442</v>
       </c>
       <c r="AM18" t="n">
-        <v>3.000041235841378</v>
+        <v>3.191300226171435</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.534981048403563</v>
+        <v>4.089562502377861</v>
       </c>
       <c r="AO18" t="n">
-        <v>3.713192023244363</v>
+        <v>3.394132200689936</v>
       </c>
       <c r="AP18" t="n">
-        <v>11.01549105089854</v>
+        <v>7.031846161118278</v>
       </c>
       <c r="AQ18" t="n">
-        <v>4.724584198167197</v>
+        <v>3.176234518471353</v>
       </c>
       <c r="AR18" t="n">
-        <v>4.989548641857373</v>
+        <v>1.589884753171686</v>
       </c>
       <c r="AS18" t="n">
-        <v>4.517226295805283</v>
+        <v>2.262626864025135</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.9020964550600359</v>
+        <v>3.838958644456403</v>
       </c>
       <c r="AU18" t="n">
-        <v>3.666080358430533</v>
+        <v>6.07906291427748</v>
       </c>
       <c r="AV18" t="n">
-        <v>7.637939452701836</v>
+        <v>6.003407595199389</v>
       </c>
       <c r="AW18" t="n">
-        <v>2.348461587761871</v>
+        <v>0</v>
       </c>
       <c r="AX18" t="n">
-        <v>3.34009065614595</v>
+        <v>1.03368593401225</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3.228224364953608</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>28.16124782578449</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>5.780314575548975</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>42.53550996399041</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>19.36000744241579</v>
+        <v>47.95896961024621</v>
       </c>
       <c r="I19" t="n">
-        <v>178.0394598303566</v>
+        <v>33.83658630101748</v>
       </c>
       <c r="J19" t="n">
-        <v>35.5580552315111</v>
+        <v>44.47158727644667</v>
       </c>
       <c r="K19" t="n">
-        <v>73.79027184209247</v>
+        <v>31.47323440138475</v>
       </c>
       <c r="L19" t="n">
-        <v>19.27353898080649</v>
+        <v>10.0471733632547</v>
       </c>
       <c r="M19" t="n">
-        <v>50.32469927621692</v>
+        <v>21.22391046373256</v>
       </c>
       <c r="N19" t="n">
-        <v>58.35950937669733</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>9.330452789690709</v>
+        <v>27.85820972033312</v>
       </c>
       <c r="P19" t="n">
-        <v>23.47640476165812</v>
+        <v>28.17291230194297</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.15645939865223</v>
+        <v>24.48063880370352</v>
       </c>
       <c r="R19" t="n">
-        <v>4.691102285053896</v>
+        <v>18.56120963771122</v>
       </c>
       <c r="S19" t="n">
-        <v>65.84601881647296</v>
+        <v>74.86037518413688</v>
       </c>
       <c r="T19" t="n">
-        <v>27.31152723743332</v>
+        <v>47.82776078528364</v>
       </c>
       <c r="U19" t="n">
-        <v>39.72624831934074</v>
+        <v>29.14255980057808</v>
       </c>
       <c r="V19" t="n">
-        <v>2.135852083914762</v>
+        <v>4.998516135393739</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>24.18655834367592</v>
       </c>
       <c r="X19" t="n">
-        <v>37.73980646714404</v>
+        <v>15.03602927668858</v>
       </c>
       <c r="Y19" t="n">
-        <v>18.83455840972719</v>
+        <v>103.2808055866703</v>
       </c>
       <c r="Z19" t="n">
-        <v>32.21771440321813</v>
+        <v>6.452321776209187</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.347680836496441</v>
+        <v>22.10510826099927</v>
       </c>
       <c r="AB19" t="n">
-        <v>5.274905344874406</v>
+        <v>2.190226619906857</v>
       </c>
       <c r="AC19" t="n">
-        <v>26.33877393563959</v>
+        <v>24.53011351072752</v>
       </c>
       <c r="AD19" t="n">
-        <v>39.58744832242999</v>
+        <v>1.989702191049631</v>
       </c>
       <c r="AE19" t="n">
-        <v>4.242229886030442</v>
+        <v>5.730463973735985</v>
       </c>
       <c r="AF19" t="n">
-        <v>10.29327539143281</v>
+        <v>29.53682928346103</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.296196521941681</v>
+        <v>13.3125262751051</v>
       </c>
       <c r="AH19" t="n">
-        <v>3.036767004168716</v>
+        <v>0.4189882048462046</v>
       </c>
       <c r="AI19" t="n">
-        <v>6.486467805847926</v>
+        <v>14.14540653978697</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3.789069852233907</v>
+        <v>4.635381941863642</v>
       </c>
       <c r="AK19" t="n">
-        <v>15.78526481540223</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>11.11736266904014</v>
+        <v>10.47171462469541</v>
       </c>
       <c r="AM19" t="n">
-        <v>17.21058509173332</v>
+        <v>11.96739971348936</v>
       </c>
       <c r="AN19" t="n">
-        <v>2.922153368750079</v>
+        <v>0.3181596858550382</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>21.31646567325889</v>
       </c>
       <c r="AP19" t="n">
-        <v>0</v>
+        <v>14.9829728200483</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8.291429820084412</v>
+        <v>13.39802158266912</v>
       </c>
       <c r="AR19" t="n">
-        <v>14.59402129384701</v>
+        <v>13.02242934255264</v>
       </c>
       <c r="AS19" t="n">
-        <v>13.2952457853106</v>
+        <v>14.57971495597717</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>14.01003152556319</v>
       </c>
       <c r="AU19" t="n">
-        <v>4.549238839122699</v>
+        <v>11.65044260208581</v>
       </c>
       <c r="AV19" t="n">
-        <v>2.369466377996705</v>
+        <v>1.067237311271292</v>
       </c>
       <c r="AW19" t="n">
-        <v>11.1713651809943</v>
+        <v>1.571473860044033</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.7502539328177192</v>
+        <v>7.50771303179592</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>20.17636206591962</v>
+        <v>41.4140424943285</v>
       </c>
       <c r="D20" t="n">
-        <v>19.04358904915035</v>
+        <v>47.99888343073117</v>
       </c>
       <c r="E20" t="n">
-        <v>14.56005101376513</v>
+        <v>2.511713793866512</v>
       </c>
       <c r="F20" t="n">
-        <v>26.9189556379029</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.894369929152928</v>
+        <v>52.40137182842111</v>
       </c>
       <c r="H20" t="n">
-        <v>8.655440710757178</v>
+        <v>94.69227618445046</v>
       </c>
       <c r="I20" t="n">
-        <v>14.88302499065171</v>
+        <v>23.41849127707466</v>
       </c>
       <c r="J20" t="n">
-        <v>28.48873344911017</v>
+        <v>45.37928653897725</v>
       </c>
       <c r="K20" t="n">
-        <v>88.05255553713958</v>
+        <v>38.39269966144035</v>
       </c>
       <c r="L20" t="n">
-        <v>53.34251496028237</v>
+        <v>64.58833685738513</v>
       </c>
       <c r="M20" t="n">
-        <v>181.6150319895243</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>117.3243473383526</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>76.1614616787493</v>
+        <v>91.2678879371785</v>
       </c>
       <c r="P20" t="n">
-        <v>40.83664672233809</v>
+        <v>43.15033870602658</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.36978483337104</v>
+        <v>72.19353500576702</v>
       </c>
       <c r="R20" t="n">
-        <v>59.77275855600512</v>
+        <v>43.03066907487146</v>
       </c>
       <c r="S20" t="n">
-        <v>53.75472700423155</v>
+        <v>84.71118374688851</v>
       </c>
       <c r="T20" t="n">
-        <v>71.99040987209607</v>
+        <v>77.11212746497704</v>
       </c>
       <c r="U20" t="n">
-        <v>64.64681899840248</v>
+        <v>56.86463988336108</v>
       </c>
       <c r="V20" t="n">
-        <v>95.70470751839179</v>
+        <v>79.5730014085012</v>
       </c>
       <c r="W20" t="n">
-        <v>91.1498761736874</v>
+        <v>77.98139726309202</v>
       </c>
       <c r="X20" t="n">
-        <v>64.48831520692765</v>
+        <v>66.70149138780972</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.80893962408351</v>
+        <v>98.80316269050076</v>
       </c>
       <c r="Z20" t="n">
-        <v>69.41807510974272</v>
+        <v>45.65315076920569</v>
       </c>
       <c r="AA20" t="n">
-        <v>74.2232845781682</v>
+        <v>99.8979356161841</v>
       </c>
       <c r="AB20" t="n">
-        <v>120.5389844077051</v>
+        <v>89.7245282810371</v>
       </c>
       <c r="AC20" t="n">
-        <v>77.71333815288725</v>
+        <v>126.972719305234</v>
       </c>
       <c r="AD20" t="n">
-        <v>107.6391282725241</v>
+        <v>75.63162621106925</v>
       </c>
       <c r="AE20" t="n">
-        <v>164.9334573978517</v>
+        <v>98.96270941064817</v>
       </c>
       <c r="AF20" t="n">
-        <v>91.86666505944248</v>
+        <v>36.81948122461984</v>
       </c>
       <c r="AG20" t="n">
-        <v>165.8353175642499</v>
+        <v>66.19867655957805</v>
       </c>
       <c r="AH20" t="n">
-        <v>95.11324025357459</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>78.74940298171161</v>
+        <v>135.3138634157506</v>
       </c>
       <c r="AJ20" t="n">
-        <v>79.73271853343043</v>
+        <v>124.9608329087961</v>
       </c>
       <c r="AK20" t="n">
-        <v>44.29214180020752</v>
+        <v>53.06921612799134</v>
       </c>
       <c r="AL20" t="n">
-        <v>80.57606185220781</v>
+        <v>38.76943507969137</v>
       </c>
       <c r="AM20" t="n">
-        <v>33.456048202709</v>
+        <v>15.61363754008855</v>
       </c>
       <c r="AN20" t="n">
-        <v>35.44799833283275</v>
+        <v>52.14037750082139</v>
       </c>
       <c r="AO20" t="n">
-        <v>44.54985791898831</v>
+        <v>20.27395017671943</v>
       </c>
       <c r="AP20" t="n">
-        <v>33.67920169522847</v>
+        <v>20.59254381308277</v>
       </c>
       <c r="AQ20" t="n">
-        <v>16.61811810129561</v>
+        <v>20.52934275660508</v>
       </c>
       <c r="AR20" t="n">
-        <v>31.1107093227344</v>
+        <v>9.405864249411092</v>
       </c>
       <c r="AS20" t="n">
-        <v>9.505994070867901</v>
+        <v>15.4314622603611</v>
       </c>
       <c r="AT20" t="n">
-        <v>32.40837315195856</v>
+        <v>30.90027731066153</v>
       </c>
       <c r="AU20" t="n">
-        <v>19.10467112595469</v>
+        <v>21.80954928460753</v>
       </c>
       <c r="AV20" t="n">
-        <v>14.46082385350447</v>
+        <v>2.446906622964317</v>
       </c>
       <c r="AW20" t="n">
-        <v>12.8029859981456</v>
+        <v>22.63069251165817</v>
       </c>
       <c r="AX20" t="n">
-        <v>11.23938142450816</v>
+        <v>26.62679843341625</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>3.170433372042538</v>
+        <v>2.100661406905256</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2.858401162909895</v>
       </c>
       <c r="E21" t="n">
-        <v>2.638480646545879</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>4.906040484149423</v>
       </c>
       <c r="G21" t="n">
-        <v>3.450336781457285</v>
+        <v>4.226508759947347</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7743591471698408</v>
+        <v>2.94925316211373</v>
       </c>
       <c r="I21" t="n">
-        <v>3.25789250785404</v>
+        <v>3.847509092650821</v>
       </c>
       <c r="J21" t="n">
-        <v>6.358464012946865</v>
+        <v>2.579461612454146</v>
       </c>
       <c r="K21" t="n">
-        <v>1.502140428642759</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.09851690223208</v>
+        <v>3.829525540493162</v>
       </c>
       <c r="M21" t="n">
-        <v>7.697107753609973</v>
+        <v>1.251329910480022</v>
       </c>
       <c r="N21" t="n">
-        <v>2.398830025700657</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3.753746268633481</v>
+        <v>0.2942718900868173</v>
       </c>
       <c r="P21" t="n">
-        <v>8.302387358242656</v>
+        <v>3.680223675888722</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.848423002312801</v>
+        <v>2.892956066009281</v>
       </c>
       <c r="R21" t="n">
-        <v>10.55652473133319</v>
+        <v>3.974458537539708</v>
       </c>
       <c r="S21" t="n">
-        <v>3.903483885545871</v>
+        <v>5.706103785031566</v>
       </c>
       <c r="T21" t="n">
-        <v>2.698484452634114</v>
+        <v>5.877655184004457</v>
       </c>
       <c r="U21" t="n">
-        <v>3.696285971376877</v>
+        <v>5.739732570457681</v>
       </c>
       <c r="V21" t="n">
-        <v>2.134198194609779</v>
+        <v>0.8052757938177382</v>
       </c>
       <c r="W21" t="n">
-        <v>4.322355454288191</v>
+        <v>3.777718827631856</v>
       </c>
       <c r="X21" t="n">
-        <v>2.902636030233275</v>
+        <v>4.419830284516019</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.589465040044619</v>
+        <v>5.103316342553642</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.482523436372279</v>
+        <v>3.419691509691374</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.54726972524286</v>
+        <v>5.546425902470467</v>
       </c>
       <c r="AB21" t="n">
-        <v>4.400311241429506</v>
+        <v>2.764920577117863</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.961033785680392</v>
+        <v>4.943870465485436</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.844268899821187</v>
+        <v>6.968920274406407</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.563795412394368</v>
+        <v>1.413438377134147</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.736177020526355</v>
+        <v>6.478944906490126</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.247686326424728</v>
+        <v>9.242145945938663</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.849160624091757</v>
+        <v>4.061595625131267</v>
       </c>
       <c r="AI21" t="n">
-        <v>10.6786334624291</v>
+        <v>7.234355794229383</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6.806325267482612</v>
+        <v>4.883933133844702</v>
       </c>
       <c r="AK21" t="n">
-        <v>6.256355140260235</v>
+        <v>4.112157411597699</v>
       </c>
       <c r="AL21" t="n">
-        <v>5.632487533422403</v>
+        <v>4.792073814324782</v>
       </c>
       <c r="AM21" t="n">
-        <v>9.578910546234448</v>
+        <v>3.324576214463553</v>
       </c>
       <c r="AN21" t="n">
-        <v>6.024018420999595</v>
+        <v>3.040897000664026</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.612732608251362</v>
+        <v>2.269448078721362</v>
       </c>
       <c r="AP21" t="n">
-        <v>6.060377901882097</v>
+        <v>3.443194733426021</v>
       </c>
       <c r="AQ21" t="n">
-        <v>3.570081189522075</v>
+        <v>4.146596210294359</v>
       </c>
       <c r="AR21" t="n">
-        <v>2.123185240972204</v>
+        <v>0.2573701651841151</v>
       </c>
       <c r="AS21" t="n">
-        <v>5.350540380486068</v>
+        <v>4.719725886208081</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.544867890660687</v>
+        <v>2.865495274038644</v>
       </c>
       <c r="AU21" t="n">
-        <v>2.188868754604849</v>
+        <v>3.218375479203652</v>
       </c>
       <c r="AV21" t="n">
-        <v>4.844766444563889</v>
+        <v>2.446953030524635</v>
       </c>
       <c r="AW21" t="n">
-        <v>3.324838530983749</v>
+        <v>0.1400061449983792</v>
       </c>
       <c r="AX21" t="n">
-        <v>1.9549934088656</v>
+        <v>6.275065029867649</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>106.7148506568812</v>
       </c>
       <c r="D22" t="n">
-        <v>5.004767150877997</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>12.17017681844327</v>
       </c>
       <c r="F22" t="n">
-        <v>3.432499985435882</v>
+        <v>127.6267062014762</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>56.21347282884684</v>
       </c>
       <c r="H22" t="n">
-        <v>20.87172007364134</v>
+        <v>5.79513541855175</v>
       </c>
       <c r="I22" t="n">
-        <v>21.63754062583394</v>
+        <v>8.796577692996779</v>
       </c>
       <c r="J22" t="n">
-        <v>39.92855514729149</v>
+        <v>89.32106326165312</v>
       </c>
       <c r="K22" t="n">
-        <v>20.3508414008416</v>
+        <v>42.71437179176909</v>
       </c>
       <c r="L22" t="n">
-        <v>46.18160588809177</v>
+        <v>17.67305782522649</v>
       </c>
       <c r="M22" t="n">
-        <v>16.6407553283066</v>
+        <v>15.95536039587621</v>
       </c>
       <c r="N22" t="n">
-        <v>54.82670868875395</v>
+        <v>20.50807995075866</v>
       </c>
       <c r="O22" t="n">
-        <v>75.97257107759667</v>
+        <v>100.4780342870707</v>
       </c>
       <c r="P22" t="n">
-        <v>140.4831141309501</v>
+        <v>65.63853279389178</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.9125937241206</v>
+        <v>20.93043759609941</v>
       </c>
       <c r="R22" t="n">
-        <v>29.6018225829098</v>
+        <v>87.00263103584568</v>
       </c>
       <c r="S22" t="n">
-        <v>71.01368625897271</v>
+        <v>39.49459888268005</v>
       </c>
       <c r="T22" t="n">
-        <v>94.0629822021989</v>
+        <v>42.56595054649842</v>
       </c>
       <c r="U22" t="n">
-        <v>63.50029547838894</v>
+        <v>77.35824939853239</v>
       </c>
       <c r="V22" t="n">
-        <v>64.10353947996046</v>
+        <v>64.20430771012032</v>
       </c>
       <c r="W22" t="n">
-        <v>33.56853191176783</v>
+        <v>104.6892451465648</v>
       </c>
       <c r="X22" t="n">
-        <v>77.58317172494233</v>
+        <v>17.43604808734148</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.24716515322928</v>
+        <v>40.17743300066395</v>
       </c>
       <c r="Z22" t="n">
-        <v>75.18173133886201</v>
+        <v>138.7322006913806</v>
       </c>
       <c r="AA22" t="n">
-        <v>60.10769252095417</v>
+        <v>43.96007068966781</v>
       </c>
       <c r="AB22" t="n">
-        <v>89.409942252975</v>
+        <v>87.97103157634837</v>
       </c>
       <c r="AC22" t="n">
-        <v>120.3256340128994</v>
+        <v>54.88592711156661</v>
       </c>
       <c r="AD22" t="n">
-        <v>55.62658711179808</v>
+        <v>106.3374017780809</v>
       </c>
       <c r="AE22" t="n">
-        <v>70.75715618297463</v>
+        <v>51.70574907497419</v>
       </c>
       <c r="AF22" t="n">
-        <v>88.4175978108118</v>
+        <v>7.080758326178642</v>
       </c>
       <c r="AG22" t="n">
-        <v>41.51922167887227</v>
+        <v>63.84663246084347</v>
       </c>
       <c r="AH22" t="n">
-        <v>70.21053093183917</v>
+        <v>16.69933398612777</v>
       </c>
       <c r="AI22" t="n">
-        <v>15.36911331810322</v>
+        <v>52.54303188908693</v>
       </c>
       <c r="AJ22" t="n">
-        <v>46.51506283015931</v>
+        <v>65.4787712197618</v>
       </c>
       <c r="AK22" t="n">
-        <v>33.19407282637389</v>
+        <v>77.03753175413438</v>
       </c>
       <c r="AL22" t="n">
-        <v>48.50739340893914</v>
+        <v>34.44798439681454</v>
       </c>
       <c r="AM22" t="n">
-        <v>37.72011368001383</v>
+        <v>12.41646145542411</v>
       </c>
       <c r="AN22" t="n">
-        <v>25.41657025838283</v>
+        <v>14.01131365936125</v>
       </c>
       <c r="AO22" t="n">
-        <v>31.69839130144876</v>
+        <v>12.27971019122917</v>
       </c>
       <c r="AP22" t="n">
-        <v>11.38570417051857</v>
+        <v>42.93720340743772</v>
       </c>
       <c r="AQ22" t="n">
-        <v>10.75303817280706</v>
+        <v>33.61834816963319</v>
       </c>
       <c r="AR22" t="n">
-        <v>8.49015582704855</v>
+        <v>4.417350745374359</v>
       </c>
       <c r="AS22" t="n">
-        <v>10.75944081611019</v>
+        <v>8.362455317919084</v>
       </c>
       <c r="AT22" t="n">
-        <v>12.05647615874721</v>
+        <v>8.057492348090097</v>
       </c>
       <c r="AU22" t="n">
-        <v>18.43033202267935</v>
+        <v>6.21952735731235</v>
       </c>
       <c r="AV22" t="n">
-        <v>18.88399411129865</v>
+        <v>13.32074314269975</v>
       </c>
       <c r="AW22" t="n">
-        <v>33.64013518830032</v>
+        <v>19.76111975999416</v>
       </c>
       <c r="AX22" t="n">
-        <v>8.273360146456566</v>
+        <v>6.179028247561247</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>22.74461921008621</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>16.29748802605069</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>13.44918838849721</v>
       </c>
       <c r="F23" t="n">
-        <v>28.65922640437606</v>
+        <v>42.07499157838708</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>31.42175105789112</v>
       </c>
       <c r="I23" t="n">
-        <v>97.45836294474385</v>
+        <v>52.9269766381981</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>18.78430058989272</v>
       </c>
       <c r="K23" t="n">
-        <v>36.21195419791422</v>
+        <v>49.70422196568514</v>
       </c>
       <c r="L23" t="n">
-        <v>30.34850296323927</v>
+        <v>9.144738929526918</v>
       </c>
       <c r="M23" t="n">
-        <v>59.64950147940191</v>
+        <v>85.96235335160887</v>
       </c>
       <c r="N23" t="n">
-        <v>22.75688541260048</v>
+        <v>70.49108528320912</v>
       </c>
       <c r="O23" t="n">
-        <v>191.8687346175035</v>
+        <v>25.76828081186038</v>
       </c>
       <c r="P23" t="n">
-        <v>63.663381414092</v>
+        <v>20.1949316040188</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.3244246118354</v>
+        <v>42.45803646469015</v>
       </c>
       <c r="R23" t="n">
-        <v>69.42868702239738</v>
+        <v>85.92149958183731</v>
       </c>
       <c r="S23" t="n">
-        <v>81.07260849576673</v>
+        <v>57.03280548433327</v>
       </c>
       <c r="T23" t="n">
-        <v>48.49626119984816</v>
+        <v>3.396102137944345</v>
       </c>
       <c r="U23" t="n">
-        <v>129.5311087895733</v>
+        <v>40.19072024004669</v>
       </c>
       <c r="V23" t="n">
-        <v>28.60047886727262</v>
+        <v>36.85961268313507</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>36.80997805079878</v>
       </c>
       <c r="X23" t="n">
-        <v>51.00764636298</v>
+        <v>18.5554700768069</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.129780484287558</v>
+        <v>52.1715738786802</v>
       </c>
       <c r="Z23" t="n">
-        <v>33.67340553314451</v>
+        <v>29.26930107324857</v>
       </c>
       <c r="AA23" t="n">
-        <v>126.3407655998992</v>
+        <v>76.43756042757977</v>
       </c>
       <c r="AB23" t="n">
-        <v>42.72031850359972</v>
+        <v>23.63154123632238</v>
       </c>
       <c r="AC23" t="n">
-        <v>13.24391526059843</v>
+        <v>53.37024364648418</v>
       </c>
       <c r="AD23" t="n">
-        <v>34.84139182650832</v>
+        <v>98.34204668365085</v>
       </c>
       <c r="AE23" t="n">
-        <v>39.54990965878033</v>
+        <v>9.639716692430376</v>
       </c>
       <c r="AF23" t="n">
-        <v>28.42870798519775</v>
+        <v>23.14115927381815</v>
       </c>
       <c r="AG23" t="n">
-        <v>36.26772334648667</v>
+        <v>11.22382435699401</v>
       </c>
       <c r="AH23" t="n">
-        <v>23.93039207974163</v>
+        <v>32.24140977245023</v>
       </c>
       <c r="AI23" t="n">
-        <v>76.39745529276955</v>
+        <v>13.73043129363972</v>
       </c>
       <c r="AJ23" t="n">
-        <v>44.79416137995327</v>
+        <v>175.600688129511</v>
       </c>
       <c r="AK23" t="n">
-        <v>11.74136432764725</v>
+        <v>53.73194767990552</v>
       </c>
       <c r="AL23" t="n">
-        <v>35.01586554243211</v>
+        <v>18.89312012139321</v>
       </c>
       <c r="AM23" t="n">
-        <v>3.990739575743767</v>
+        <v>4.49107816379187</v>
       </c>
       <c r="AN23" t="n">
-        <v>12.97656316315398</v>
+        <v>26.82478994191742</v>
       </c>
       <c r="AO23" t="n">
-        <v>29.11690727261659</v>
+        <v>29.04212517121223</v>
       </c>
       <c r="AP23" t="n">
-        <v>22.98260070002303</v>
+        <v>25.57012372948144</v>
       </c>
       <c r="AQ23" t="n">
-        <v>25.53940702825571</v>
+        <v>8.480708962750134</v>
       </c>
       <c r="AR23" t="n">
-        <v>2.340029480814318</v>
+        <v>19.09340482060071</v>
       </c>
       <c r="AS23" t="n">
-        <v>31.10697853309966</v>
+        <v>26.14850397563058</v>
       </c>
       <c r="AT23" t="n">
-        <v>27.77492981980874</v>
+        <v>20.82634451683269</v>
       </c>
       <c r="AU23" t="n">
-        <v>2.476210853236437</v>
+        <v>3.145782777264214</v>
       </c>
       <c r="AV23" t="n">
-        <v>34.62951299219037</v>
+        <v>18.82496689002674</v>
       </c>
       <c r="AW23" t="n">
-        <v>21.43395027988337</v>
+        <v>32.84811970715567</v>
       </c>
       <c r="AX23" t="n">
-        <v>5.811157897712271</v>
+        <v>2.920597196630157</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>1.184074575751217</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.5660321959707693</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>6.651331603302055</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.158806692523768</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>6.292875608698885</v>
+        <v>5.884978904295854</v>
       </c>
       <c r="J24" t="n">
-        <v>15.95731397793995</v>
+        <v>9.211167094027171</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>15.36253749864402</v>
+        <v>97.2584859950038</v>
       </c>
       <c r="M24" t="n">
-        <v>23.63474417413859</v>
+        <v>24.05581378099739</v>
       </c>
       <c r="N24" t="n">
-        <v>21.3648137893979</v>
+        <v>18.95969857916757</v>
       </c>
       <c r="O24" t="n">
-        <v>17.44573308771973</v>
+        <v>6.349434235543162</v>
       </c>
       <c r="P24" t="n">
-        <v>39.96078810357477</v>
+        <v>14.86472262302933</v>
       </c>
       <c r="Q24" t="n">
-        <v>16.92809952052761</v>
+        <v>103.6793974656161</v>
       </c>
       <c r="R24" t="n">
-        <v>46.48423377339262</v>
+        <v>44.12769684142416</v>
       </c>
       <c r="S24" t="n">
-        <v>11.10536672129369</v>
+        <v>4.46567903833035</v>
       </c>
       <c r="T24" t="n">
-        <v>54.46097178580435</v>
+        <v>8.411496451388839</v>
       </c>
       <c r="U24" t="n">
-        <v>6.170325368502252</v>
+        <v>30.3582726684386</v>
       </c>
       <c r="V24" t="n">
-        <v>29.27068872293669</v>
+        <v>19.56515609447499</v>
       </c>
       <c r="W24" t="n">
-        <v>14.53376006671532</v>
+        <v>3.530134016535058</v>
       </c>
       <c r="X24" t="n">
-        <v>21.64944081475809</v>
+        <v>19.45136037292133</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.70615180349146</v>
+        <v>30.40662771608358</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.78104331975525</v>
+        <v>36.8003153014434</v>
       </c>
       <c r="AA24" t="n">
-        <v>10.97331487004451</v>
+        <v>13.24639666355508</v>
       </c>
       <c r="AB24" t="n">
-        <v>21.30261686370884</v>
+        <v>21.86934028836497</v>
       </c>
       <c r="AC24" t="n">
-        <v>16.77334881178292</v>
+        <v>20.83597862155319</v>
       </c>
       <c r="AD24" t="n">
-        <v>16.53985600896464</v>
+        <v>7.086799862676825</v>
       </c>
       <c r="AE24" t="n">
-        <v>16.88800144708888</v>
+        <v>7.550791899868262</v>
       </c>
       <c r="AF24" t="n">
-        <v>14.84141515083064</v>
+        <v>10.59542729296258</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.73850542470533</v>
+        <v>16.71525006470585</v>
       </c>
       <c r="AH24" t="n">
-        <v>15.97011553922624</v>
+        <v>6.452286458419988</v>
       </c>
       <c r="AI24" t="n">
-        <v>10.85939089042127</v>
+        <v>24.33951297252211</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15.57232887019283</v>
+        <v>9.017509529368633</v>
       </c>
       <c r="AK24" t="n">
-        <v>5.765494511166949</v>
+        <v>7.321992710719843</v>
       </c>
       <c r="AL24" t="n">
-        <v>9.676721410372579</v>
+        <v>13.97132170646221</v>
       </c>
       <c r="AM24" t="n">
-        <v>13.32300997609441</v>
+        <v>1.77572693426665</v>
       </c>
       <c r="AN24" t="n">
-        <v>1.738358756317053</v>
+        <v>1.407776619620231</v>
       </c>
       <c r="AO24" t="n">
-        <v>2.863344707725634</v>
+        <v>2.242761590304796</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.800331716993159</v>
+        <v>4.774977527213169</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.938533116204094</v>
+        <v>1.233816011313843</v>
       </c>
       <c r="AR24" t="n">
-        <v>7.395940944803748</v>
+        <v>6.975575700247415</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.204036784242243</v>
+        <v>1.099227581530596</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.834145595842037</v>
+        <v>1.801094558847497</v>
       </c>
       <c r="AU24" t="n">
-        <v>1.715126591585207</v>
+        <v>1.925002771558054</v>
       </c>
       <c r="AV24" t="n">
-        <v>2.124043708095662</v>
+        <v>2.471146924978506</v>
       </c>
       <c r="AW24" t="n">
-        <v>3.773567051082802</v>
+        <v>0.7659506825797237</v>
       </c>
       <c r="AX24" t="n">
-        <v>1.70711471220121</v>
+        <v>5.343996154284315</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>32.32890731698409</v>
       </c>
       <c r="D25" t="n">
-        <v>3.108084328328486</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>26.85477588047113</v>
       </c>
       <c r="F25" t="n">
-        <v>2.472461943657185</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>39.32061181136248</v>
+        <v>27.12233236587588</v>
       </c>
       <c r="I25" t="n">
-        <v>20.32035184872411</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>18.38308116805432</v>
+        <v>19.71934986913576</v>
       </c>
       <c r="K25" t="n">
-        <v>32.85766403673928</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>14.47416683512097</v>
+        <v>70.67667933214869</v>
       </c>
       <c r="M25" t="n">
-        <v>43.43670004948229</v>
+        <v>27.5794690819579</v>
       </c>
       <c r="N25" t="n">
-        <v>0.177731292228879</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>42.56125261638368</v>
+        <v>15.32082886692003</v>
       </c>
       <c r="P25" t="n">
-        <v>44.5842328769683</v>
+        <v>117.1311185332246</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.8953811570545</v>
+        <v>9.005771048761668</v>
       </c>
       <c r="R25" t="n">
-        <v>21.15791134754201</v>
+        <v>99.00017956147622</v>
       </c>
       <c r="S25" t="n">
-        <v>48.22941930520392</v>
+        <v>10.7507942571611</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>120.5127653664718</v>
       </c>
       <c r="U25" t="n">
-        <v>43.26642122238758</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>29.81406728584895</v>
+        <v>26.92264071207088</v>
       </c>
       <c r="W25" t="n">
-        <v>24.56429436163157</v>
+        <v>40.00607271068846</v>
       </c>
       <c r="X25" t="n">
-        <v>23.0242445149374</v>
+        <v>75.89120746309129</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.1485948157602826</v>
+        <v>90.93298993847912</v>
       </c>
       <c r="Z25" t="n">
-        <v>14.66614096520453</v>
+        <v>77.54870532162244</v>
       </c>
       <c r="AA25" t="n">
-        <v>55.8244412908068</v>
+        <v>12.06935295937548</v>
       </c>
       <c r="AB25" t="n">
-        <v>12.16615717245388</v>
+        <v>5.40592764816177</v>
       </c>
       <c r="AC25" t="n">
-        <v>70.70710379360011</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.61374449696349</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>11.34244457853204</v>
+        <v>9.840900982785774</v>
       </c>
       <c r="AF25" t="n">
-        <v>4.173386211360137</v>
+        <v>13.8239167334809</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.6162450278840383</v>
+        <v>2.795377375497509</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.875070806328979</v>
+        <v>4.117748853534449</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.2179011755786033</v>
+        <v>11.02587218189392</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1.965222648738128</v>
       </c>
       <c r="AK25" t="n">
-        <v>13.88214624844315</v>
+        <v>19.0907890954873</v>
       </c>
       <c r="AL25" t="n">
-        <v>47.63686317067798</v>
+        <v>9.271345354300998</v>
       </c>
       <c r="AM25" t="n">
-        <v>14.78754232311267</v>
+        <v>1.673672173830873</v>
       </c>
       <c r="AN25" t="n">
-        <v>12.19297703188118</v>
+        <v>21.8981018275302</v>
       </c>
       <c r="AO25" t="n">
-        <v>15.4551329102445</v>
+        <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>6.568734097731888</v>
+        <v>2.707334084514744</v>
       </c>
       <c r="AQ25" t="n">
-        <v>8.307461591119655</v>
+        <v>9.505324358208172</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.318974050060789</v>
+        <v>7.109726385325315</v>
       </c>
       <c r="AS25" t="n">
-        <v>6.787887841290298</v>
+        <v>8.257562628928047</v>
       </c>
       <c r="AT25" t="n">
-        <v>0</v>
+        <v>4.342295535983219</v>
       </c>
       <c r="AU25" t="n">
-        <v>0</v>
+        <v>5.606156764992049</v>
       </c>
       <c r="AV25" t="n">
-        <v>27.71504225320503</v>
+        <v>1.526050328594007</v>
       </c>
       <c r="AW25" t="n">
-        <v>4.830295371972598</v>
+        <v>5.003289157183185</v>
       </c>
       <c r="AX25" t="n">
-        <v>6.310458570157254</v>
+        <v>1.884046065270942</v>
       </c>
     </row>
     <row r="26">
@@ -4344,145 +4344,145 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>23.52741771811795</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>10.93084336501414</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>187.8044508054907</v>
       </c>
       <c r="H26" t="n">
-        <v>81.83738085072568</v>
+        <v>29.14638029232467</v>
       </c>
       <c r="I26" t="n">
-        <v>33.813304027378</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>103.6915210118995</v>
+        <v>10.57210771328566</v>
       </c>
       <c r="L26" t="n">
-        <v>62.05585496586332</v>
+        <v>105.8221632448487</v>
       </c>
       <c r="M26" t="n">
-        <v>36.86235940973513</v>
+        <v>66.9016865356935</v>
       </c>
       <c r="N26" t="n">
-        <v>302.1583934657496</v>
+        <v>17.05938429630153</v>
       </c>
       <c r="O26" t="n">
-        <v>41.24695977157412</v>
+        <v>77.35972546206771</v>
       </c>
       <c r="P26" t="n">
-        <v>4.454034730611724</v>
+        <v>68.04038914944496</v>
       </c>
       <c r="Q26" t="n">
-        <v>39.00134056310763</v>
+        <v>37.78196493167387</v>
       </c>
       <c r="R26" t="n">
-        <v>54.02201893291094</v>
+        <v>60.76486667001378</v>
       </c>
       <c r="S26" t="n">
-        <v>71.84750508236797</v>
+        <v>128.7328560346049</v>
       </c>
       <c r="T26" t="n">
-        <v>63.59545514988866</v>
+        <v>59.18826347484172</v>
       </c>
       <c r="U26" t="n">
-        <v>39.3670234832938</v>
+        <v>283.8400506877827</v>
       </c>
       <c r="V26" t="n">
-        <v>53.38396493530029</v>
+        <v>89.67465532862529</v>
       </c>
       <c r="W26" t="n">
-        <v>81.11534266437694</v>
+        <v>32.75784042270691</v>
       </c>
       <c r="X26" t="n">
-        <v>68.25496246274095</v>
+        <v>97.02907657783517</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.46349126403524</v>
+        <v>22.83192815553409</v>
       </c>
       <c r="Z26" t="n">
-        <v>67.52948184272302</v>
+        <v>49.46771011091486</v>
       </c>
       <c r="AA26" t="n">
-        <v>30.6233177985894</v>
+        <v>124.0129395022517</v>
       </c>
       <c r="AB26" t="n">
-        <v>111.2936157758368</v>
+        <v>85.15383111214905</v>
       </c>
       <c r="AC26" t="n">
-        <v>95.60333816397835</v>
+        <v>68.41070911885168</v>
       </c>
       <c r="AD26" t="n">
-        <v>119.2986614582579</v>
+        <v>92.38837570612108</v>
       </c>
       <c r="AE26" t="n">
-        <v>109.8711431956246</v>
+        <v>78.37295377695</v>
       </c>
       <c r="AF26" t="n">
-        <v>118.0342289504075</v>
+        <v>51.92645274269346</v>
       </c>
       <c r="AG26" t="n">
-        <v>129.0552044984783</v>
+        <v>101.9148152071076</v>
       </c>
       <c r="AH26" t="n">
-        <v>109.9694916812868</v>
+        <v>75.82395653888648</v>
       </c>
       <c r="AI26" t="n">
-        <v>27.28315398632015</v>
+        <v>95.54569583618174</v>
       </c>
       <c r="AJ26" t="n">
-        <v>91.38975123922364</v>
+        <v>20.9339231568767</v>
       </c>
       <c r="AK26" t="n">
-        <v>41.60861362424397</v>
+        <v>88.99766513830303</v>
       </c>
       <c r="AL26" t="n">
-        <v>67.86883020228231</v>
+        <v>35.55134715034063</v>
       </c>
       <c r="AM26" t="n">
-        <v>39.05266102787535</v>
+        <v>20.77968410942953</v>
       </c>
       <c r="AN26" t="n">
-        <v>25.41063895760875</v>
+        <v>31.89424565706475</v>
       </c>
       <c r="AO26" t="n">
-        <v>35.35525740665685</v>
+        <v>41.68502188877382</v>
       </c>
       <c r="AP26" t="n">
-        <v>31.89463414675061</v>
+        <v>55.57538538368531</v>
       </c>
       <c r="AQ26" t="n">
-        <v>15.02115076612569</v>
+        <v>23.86799765818927</v>
       </c>
       <c r="AR26" t="n">
-        <v>18.11323280512583</v>
+        <v>15.34431039918652</v>
       </c>
       <c r="AS26" t="n">
-        <v>23.02378430031744</v>
+        <v>92.50130535740563</v>
       </c>
       <c r="AT26" t="n">
-        <v>14.96594796869588</v>
+        <v>11.55775991736339</v>
       </c>
       <c r="AU26" t="n">
-        <v>20.63293849449281</v>
+        <v>18.92316521683485</v>
       </c>
       <c r="AV26" t="n">
-        <v>30.99868528521379</v>
+        <v>15.51509997269128</v>
       </c>
       <c r="AW26" t="n">
-        <v>18.12970263601393</v>
+        <v>19.98238211887399</v>
       </c>
       <c r="AX26" t="n">
-        <v>32.31618160213247</v>
+        <v>14.3743220181943</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>1.779064750599873</v>
+        <v>0.887796052113982</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>4.082108656225358</v>
       </c>
       <c r="E27" t="n">
-        <v>2.90178205724464</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>5.252655109463254</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7093657146067018</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>6.359529915766863</v>
+        <v>1.504220484112372</v>
       </c>
       <c r="I27" t="n">
-        <v>2.362343142804853</v>
+        <v>2.535758224086682</v>
       </c>
       <c r="J27" t="n">
-        <v>1.838965926375808</v>
+        <v>13.36142371701863</v>
       </c>
       <c r="K27" t="n">
-        <v>2.735156301719999</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>6.837334468034793</v>
+        <v>1.612734772174405</v>
       </c>
       <c r="M27" t="n">
-        <v>1.674435172433481</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>3.055595381738013</v>
+        <v>0.6219888276230232</v>
       </c>
       <c r="O27" t="n">
-        <v>6.771329624307643</v>
+        <v>4.55966538597149</v>
       </c>
       <c r="P27" t="n">
-        <v>4.80813200297654</v>
+        <v>6.403502953410757</v>
       </c>
       <c r="Q27" t="n">
-        <v>5.596952649571834</v>
+        <v>3.119137625973681</v>
       </c>
       <c r="R27" t="n">
-        <v>4.303955893665233</v>
+        <v>3.448285196703935</v>
       </c>
       <c r="S27" t="n">
-        <v>3.561532099258728</v>
+        <v>4.891342459317793</v>
       </c>
       <c r="T27" t="n">
-        <v>2.725347547765653</v>
+        <v>0.7282773886870697</v>
       </c>
       <c r="U27" t="n">
-        <v>4.596350745816223</v>
+        <v>4.150016017556428</v>
       </c>
       <c r="V27" t="n">
-        <v>5.835392092885447</v>
+        <v>7.185439851276874</v>
       </c>
       <c r="W27" t="n">
-        <v>4.713753937403631</v>
+        <v>4.449181765301299</v>
       </c>
       <c r="X27" t="n">
-        <v>3.772231830510343</v>
+        <v>3.464326516505693</v>
       </c>
       <c r="Y27" t="n">
-        <v>3.899325553038323</v>
+        <v>6.187720511520379</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.8081698391552186</v>
+        <v>1.874703805702353</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.530930751644864</v>
+        <v>3.563736405852251</v>
       </c>
       <c r="AB27" t="n">
-        <v>5.160324967112758</v>
+        <v>4.699805573716989</v>
       </c>
       <c r="AC27" t="n">
-        <v>3.865833328391083</v>
+        <v>5.909936611852139</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.933787186430064</v>
+        <v>5.829411839676625</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.062083689046307</v>
+        <v>3.851969466856561</v>
       </c>
       <c r="AF27" t="n">
-        <v>4.527386190841968</v>
+        <v>5.224074682932691</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.620901957954395</v>
+        <v>5.019048806289864</v>
       </c>
       <c r="AH27" t="n">
-        <v>5.225951417619259</v>
+        <v>6.310349081678281</v>
       </c>
       <c r="AI27" t="n">
-        <v>11.525367848393</v>
+        <v>5.080154068156726</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4.598740877199269</v>
+        <v>5.945548192966951</v>
       </c>
       <c r="AK27" t="n">
-        <v>7.317989947509899</v>
+        <v>6.033795150296562</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.875891098793827</v>
+        <v>3.840405868890605</v>
       </c>
       <c r="AM27" t="n">
-        <v>3.562069498683727</v>
+        <v>3.955008440322013</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.699657008027184</v>
+        <v>4.67503568525101</v>
       </c>
       <c r="AO27" t="n">
-        <v>3.787678822693764</v>
+        <v>6.107818151750422</v>
       </c>
       <c r="AP27" t="n">
-        <v>3.520872487235755</v>
+        <v>2.185446916644323</v>
       </c>
       <c r="AQ27" t="n">
-        <v>3.858792360601818</v>
+        <v>3.342676165824892</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.582757234794</v>
+        <v>1.391230496021945</v>
       </c>
       <c r="AS27" t="n">
-        <v>6.681982947308751</v>
+        <v>3.993954482418499</v>
       </c>
       <c r="AT27" t="n">
-        <v>11.35740331917594</v>
+        <v>2.735828049279037</v>
       </c>
       <c r="AU27" t="n">
-        <v>4.116879576463873</v>
+        <v>3.468441713369155</v>
       </c>
       <c r="AV27" t="n">
-        <v>4.090408054544689</v>
+        <v>0.6874253337063424</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.522252056992091</v>
+        <v>4.511584746812424</v>
       </c>
       <c r="AX27" t="n">
-        <v>3.416783710338457</v>
+        <v>2.845871647752811</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>13.40320469359673</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>5.976590001801549</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>4.301210073530306</v>
+        <v>9.91607629266592</v>
       </c>
       <c r="F28" t="n">
-        <v>15.81444078124498</v>
+        <v>2.070951218184641</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>113.1923238175257</v>
       </c>
       <c r="H28" t="n">
-        <v>32.83764508012725</v>
+        <v>129.509561796686</v>
       </c>
       <c r="I28" t="n">
-        <v>31.75682460424818</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>44.28756153250933</v>
       </c>
       <c r="K28" t="n">
-        <v>35.07978484970629</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>53.6053748392299</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>128.8768505691351</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>119.9019340329443</v>
+        <v>41.80778555428064</v>
       </c>
       <c r="O28" t="n">
-        <v>83.7161557213289</v>
+        <v>68.08755377365171</v>
       </c>
       <c r="P28" t="n">
-        <v>74.07111014767297</v>
+        <v>76.11302940388907</v>
       </c>
       <c r="Q28" t="n">
-        <v>96.08734801789119</v>
+        <v>67.93233574410748</v>
       </c>
       <c r="R28" t="n">
-        <v>53.06142205828628</v>
+        <v>2.389531328606111</v>
       </c>
       <c r="S28" t="n">
-        <v>79.56275130061275</v>
+        <v>10.17063190241019</v>
       </c>
       <c r="T28" t="n">
-        <v>52.93550583086123</v>
+        <v>68.57649683842398</v>
       </c>
       <c r="U28" t="n">
-        <v>51.91790263657165</v>
+        <v>49.92983833668565</v>
       </c>
       <c r="V28" t="n">
-        <v>48.28389349208138</v>
+        <v>69.92137191413401</v>
       </c>
       <c r="W28" t="n">
-        <v>16.72958670134373</v>
+        <v>61.24011386040501</v>
       </c>
       <c r="X28" t="n">
-        <v>64.51476410814777</v>
+        <v>45.768072180032</v>
       </c>
       <c r="Y28" t="n">
-        <v>54.56524387313668</v>
+        <v>65.13786065691323</v>
       </c>
       <c r="Z28" t="n">
-        <v>79.89419483467239</v>
+        <v>102.585942267027</v>
       </c>
       <c r="AA28" t="n">
-        <v>47.80831194009959</v>
+        <v>99.48469440504704</v>
       </c>
       <c r="AB28" t="n">
-        <v>42.9531732158769</v>
+        <v>60.98322334666701</v>
       </c>
       <c r="AC28" t="n">
-        <v>78.28980014638078</v>
+        <v>113.6538208628172</v>
       </c>
       <c r="AD28" t="n">
-        <v>54.0159658575803</v>
+        <v>44.5019587962019</v>
       </c>
       <c r="AE28" t="n">
-        <v>122.2048110135581</v>
+        <v>24.46640563325939</v>
       </c>
       <c r="AF28" t="n">
-        <v>90.28961495882895</v>
+        <v>65.63629550464327</v>
       </c>
       <c r="AG28" t="n">
-        <v>119.4726277816928</v>
+        <v>73.85934828629281</v>
       </c>
       <c r="AH28" t="n">
-        <v>45.26814160330473</v>
+        <v>75.49707617944098</v>
       </c>
       <c r="AI28" t="n">
-        <v>54.18250939618621</v>
+        <v>65.48769786805403</v>
       </c>
       <c r="AJ28" t="n">
-        <v>38.80604446536262</v>
+        <v>7.88723349325119</v>
       </c>
       <c r="AK28" t="n">
-        <v>46.97443107974412</v>
+        <v>165.0652523669341</v>
       </c>
       <c r="AL28" t="n">
-        <v>30.74875596046216</v>
+        <v>66.94742296977188</v>
       </c>
       <c r="AM28" t="n">
-        <v>44.98204328982438</v>
+        <v>16.01793792960909</v>
       </c>
       <c r="AN28" t="n">
-        <v>33.31096932540567</v>
+        <v>15.38399413686764</v>
       </c>
       <c r="AO28" t="n">
-        <v>18.64238768784197</v>
+        <v>13.44076372206302</v>
       </c>
       <c r="AP28" t="n">
-        <v>9.036694607783126</v>
+        <v>13.34103284696286</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10.09268335783916</v>
+        <v>14.00068140408498</v>
       </c>
       <c r="AR28" t="n">
-        <v>39.83753442763578</v>
+        <v>7.638500338994498</v>
       </c>
       <c r="AS28" t="n">
-        <v>8.088692387993296</v>
+        <v>10.10934907436249</v>
       </c>
       <c r="AT28" t="n">
-        <v>10.91552015803388</v>
+        <v>5.595178230264581</v>
       </c>
       <c r="AU28" t="n">
-        <v>10.57179583690642</v>
+        <v>12.2713177672128</v>
       </c>
       <c r="AV28" t="n">
-        <v>11.48656979807097</v>
+        <v>17.0330950193112</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.193914653210969</v>
+        <v>16.85394504916655</v>
       </c>
       <c r="AX28" t="n">
-        <v>14.20109652348488</v>
+        <v>17.14439747630155</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>61.73952294434642</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>9.587260038919094</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>20.58264858860903</v>
       </c>
       <c r="F29" t="n">
-        <v>23.35702645629236</v>
+        <v>39.71992038583184</v>
       </c>
       <c r="G29" t="n">
-        <v>27.75226901233098</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>14.88789030784243</v>
       </c>
       <c r="I29" t="n">
-        <v>81.30775126844256</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>30.73230719310814</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>101.4988958910739</v>
+        <v>7.959482551450215</v>
       </c>
       <c r="L29" t="n">
-        <v>5.836067091845537</v>
+        <v>47.09702460507864</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>10.13374778140603</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>124.0920095058452</v>
+        <v>139.4212026724594</v>
       </c>
       <c r="P29" t="n">
-        <v>35.87382399754304</v>
+        <v>20.85530230327636</v>
       </c>
       <c r="Q29" t="n">
-        <v>40.38792851471065</v>
+        <v>49.50507683465268</v>
       </c>
       <c r="R29" t="n">
-        <v>40.11258560906767</v>
+        <v>54.67138482001221</v>
       </c>
       <c r="S29" t="n">
-        <v>53.0260412808426</v>
+        <v>48.07503499194046</v>
       </c>
       <c r="T29" t="n">
-        <v>51.35634064247822</v>
+        <v>1.915813510679967</v>
       </c>
       <c r="U29" t="n">
-        <v>78.98189392280902</v>
+        <v>82.8332721271111</v>
       </c>
       <c r="V29" t="n">
-        <v>37.84687418362346</v>
+        <v>37.35481837297506</v>
       </c>
       <c r="W29" t="n">
-        <v>47.09747516849323</v>
+        <v>44.821774749317</v>
       </c>
       <c r="X29" t="n">
-        <v>4.589005974700846</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>75.85465986256114</v>
+        <v>25.79337611385485</v>
       </c>
       <c r="Z29" t="n">
-        <v>105.451445741503</v>
+        <v>39.21416648677208</v>
       </c>
       <c r="AA29" t="n">
-        <v>42.03276463775292</v>
+        <v>15.53851363166218</v>
       </c>
       <c r="AB29" t="n">
-        <v>38.18066548305558</v>
+        <v>36.762892350708</v>
       </c>
       <c r="AC29" t="n">
-        <v>44.15623440849306</v>
+        <v>5.304169647250434</v>
       </c>
       <c r="AD29" t="n">
-        <v>8.462217748036963</v>
+        <v>21.71636461859306</v>
       </c>
       <c r="AE29" t="n">
-        <v>149.4573650777246</v>
+        <v>84.55892587709621</v>
       </c>
       <c r="AF29" t="n">
-        <v>23.66656866223684</v>
+        <v>42.69164384858693</v>
       </c>
       <c r="AG29" t="n">
-        <v>28.27472716982777</v>
+        <v>14.88307676487132</v>
       </c>
       <c r="AH29" t="n">
-        <v>67.50507548091186</v>
+        <v>72.50230087994402</v>
       </c>
       <c r="AI29" t="n">
-        <v>49.97465000184375</v>
+        <v>32.81037204919529</v>
       </c>
       <c r="AJ29" t="n">
-        <v>25.10027083599988</v>
+        <v>21.92455266128954</v>
       </c>
       <c r="AK29" t="n">
-        <v>26.89166179366607</v>
+        <v>15.87090339121143</v>
       </c>
       <c r="AL29" t="n">
-        <v>12.20542679122011</v>
+        <v>12.92242366674062</v>
       </c>
       <c r="AM29" t="n">
-        <v>23.93083207246218</v>
+        <v>35.1138153450327</v>
       </c>
       <c r="AN29" t="n">
-        <v>36.83114813054207</v>
+        <v>9.10097451702039</v>
       </c>
       <c r="AO29" t="n">
-        <v>24.40255858030021</v>
+        <v>28.47791592825588</v>
       </c>
       <c r="AP29" t="n">
-        <v>20.40555702270732</v>
+        <v>10.09305541660595</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5.393290532852743</v>
+        <v>20.94774420462395</v>
       </c>
       <c r="AR29" t="n">
-        <v>34.36993669222715</v>
+        <v>8.105504031549486</v>
       </c>
       <c r="AS29" t="n">
-        <v>25.29069070703175</v>
+        <v>41.83688350451608</v>
       </c>
       <c r="AT29" t="n">
-        <v>29.68626594215752</v>
+        <v>22.01892180508181</v>
       </c>
       <c r="AU29" t="n">
-        <v>11.73973716144747</v>
+        <v>32.23127501185738</v>
       </c>
       <c r="AV29" t="n">
-        <v>13.95914081114233</v>
+        <v>25.61998266028159</v>
       </c>
       <c r="AW29" t="n">
-        <v>18.08519639290506</v>
+        <v>17.85294347766143</v>
       </c>
       <c r="AX29" t="n">
-        <v>20.90998506909809</v>
+        <v>20.54677909609786</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>2.484120394698039</v>
+        <v>4.686729575764396</v>
       </c>
       <c r="D30" t="n">
-        <v>1.135763460429116</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>29.29760535605327</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>26.94787902631318</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>4.844684320680325</v>
+        <v>18.64002410528718</v>
       </c>
       <c r="H30" t="n">
-        <v>13.56292926136728</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.200043444413986</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>11.12797669414022</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>11.76494169837101</v>
+        <v>24.1849223046521</v>
       </c>
       <c r="M30" t="n">
-        <v>59.95685482032607</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>25.42443089567698</v>
+        <v>67.85093939246099</v>
       </c>
       <c r="O30" t="n">
-        <v>27.35412674716834</v>
+        <v>15.91269390562861</v>
       </c>
       <c r="P30" t="n">
-        <v>36.4487027861909</v>
+        <v>9.252692197221034</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.11198610592122</v>
+        <v>13.83706713001056</v>
       </c>
       <c r="R30" t="n">
-        <v>35.97496204936233</v>
+        <v>28.6060997241412</v>
       </c>
       <c r="S30" t="n">
-        <v>40.42286336968706</v>
+        <v>31.90952855385606</v>
       </c>
       <c r="T30" t="n">
-        <v>6.945790890806101</v>
+        <v>39.83093291370443</v>
       </c>
       <c r="U30" t="n">
-        <v>45.4325590344557</v>
+        <v>20.05403824719376</v>
       </c>
       <c r="V30" t="n">
-        <v>14.08267326753769</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>17.52420376698386</v>
+        <v>129.4816054600936</v>
       </c>
       <c r="X30" t="n">
-        <v>10.19262134695731</v>
+        <v>8.000074986226792</v>
       </c>
       <c r="Y30" t="n">
-        <v>27.10314821763364</v>
+        <v>8.983878104732501</v>
       </c>
       <c r="Z30" t="n">
-        <v>11.78465517761018</v>
+        <v>30.89733717718281</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.05236105083423</v>
+        <v>10.2264507446543</v>
       </c>
       <c r="AB30" t="n">
-        <v>13.70832036789463</v>
+        <v>7.21328837932516</v>
       </c>
       <c r="AC30" t="n">
-        <v>25.4597087533239</v>
+        <v>20.38795841997619</v>
       </c>
       <c r="AD30" t="n">
-        <v>36.0597854976388</v>
+        <v>7.757996535160621</v>
       </c>
       <c r="AE30" t="n">
-        <v>12.55993352509654</v>
+        <v>20.5444782901574</v>
       </c>
       <c r="AF30" t="n">
-        <v>12.0007012639074</v>
+        <v>11.34017316168246</v>
       </c>
       <c r="AG30" t="n">
-        <v>4.32054015714448</v>
+        <v>13.9294469147238</v>
       </c>
       <c r="AH30" t="n">
-        <v>12.73927265134665</v>
+        <v>7.251875753469245</v>
       </c>
       <c r="AI30" t="n">
-        <v>12.99423207247595</v>
+        <v>18.99464194482514</v>
       </c>
       <c r="AJ30" t="n">
-        <v>4.450912442991122</v>
+        <v>5.971117374484582</v>
       </c>
       <c r="AK30" t="n">
-        <v>5.800003664136169</v>
+        <v>18.64438647574279</v>
       </c>
       <c r="AL30" t="n">
-        <v>4.924054632710396</v>
+        <v>17.86853020097438</v>
       </c>
       <c r="AM30" t="n">
-        <v>7.679893663495908</v>
+        <v>0.5437820277301442</v>
       </c>
       <c r="AN30" t="n">
-        <v>7.294699626902242</v>
+        <v>0.9094853074992603</v>
       </c>
       <c r="AO30" t="n">
-        <v>2.349270102325554</v>
+        <v>3.363130099659953</v>
       </c>
       <c r="AP30" t="n">
-        <v>5.912115099553434</v>
+        <v>0</v>
       </c>
       <c r="AQ30" t="n">
-        <v>3.175386655789084</v>
+        <v>3.190245440739707</v>
       </c>
       <c r="AR30" t="n">
-        <v>0.9537388730351555</v>
+        <v>10.06112677242613</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.199095161885741</v>
+        <v>3.742417423725664</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.642570615043876</v>
+        <v>3.763892187102577</v>
       </c>
       <c r="AU30" t="n">
-        <v>1.070554609194609</v>
+        <v>3.555647356144063</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.4065309838799717</v>
+        <v>2.997968846848666</v>
       </c>
       <c r="AW30" t="n">
-        <v>3.074242971827515</v>
+        <v>2.013451107637837</v>
       </c>
       <c r="AX30" t="n">
-        <v>4.023044107328891</v>
+        <v>6.971721802477051</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>28.08410796025824</v>
+        <v>36.51721632319494</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>21.19538681616248</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>11.73972199736837</v>
       </c>
       <c r="H31" t="n">
-        <v>44.1711265116583</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>13.84591169268964</v>
+        <v>12.52547689369701</v>
       </c>
       <c r="J31" t="n">
-        <v>32.40353190055487</v>
+        <v>34.60522783927295</v>
       </c>
       <c r="K31" t="n">
-        <v>65.35380140199182</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>13.54954667567954</v>
+        <v>26.2579235395619</v>
       </c>
       <c r="M31" t="n">
-        <v>17.57336439536901</v>
+        <v>27.70481684091227</v>
       </c>
       <c r="N31" t="n">
-        <v>86.16935189327157</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>14.67457952033342</v>
+        <v>109.4102583521337</v>
       </c>
       <c r="P31" t="n">
-        <v>25.50340856049466</v>
+        <v>21.97013668619193</v>
       </c>
       <c r="Q31" t="n">
-        <v>38.21238194298313</v>
+        <v>19.49005504662938</v>
       </c>
       <c r="R31" t="n">
-        <v>39.94100981792613</v>
+        <v>37.18083277754429</v>
       </c>
       <c r="S31" t="n">
-        <v>50.48834879775803</v>
+        <v>30.21597860658249</v>
       </c>
       <c r="T31" t="n">
-        <v>38.48232292958457</v>
+        <v>16.07966496005509</v>
       </c>
       <c r="U31" t="n">
-        <v>36.15025793491178</v>
+        <v>39.68845403298525</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0.8105493025220245</v>
+        <v>40.23124167944719</v>
       </c>
       <c r="X31" t="n">
-        <v>6.909024939780181</v>
+        <v>3.065023772352713</v>
       </c>
       <c r="Y31" t="n">
-        <v>27.50999593367504</v>
+        <v>18.14098333126376</v>
       </c>
       <c r="Z31" t="n">
-        <v>69.51450212493666</v>
+        <v>63.32517753769991</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1.54484361782653</v>
       </c>
       <c r="AB31" t="n">
-        <v>16.94208915069672</v>
+        <v>7.586702713870163</v>
       </c>
       <c r="AC31" t="n">
-        <v>15.4750418859436</v>
+        <v>7.854577939796423</v>
       </c>
       <c r="AD31" t="n">
-        <v>6.791167086336209</v>
+        <v>18.52947342003868</v>
       </c>
       <c r="AE31" t="n">
-        <v>6.843091773567632</v>
+        <v>8.022349791684714</v>
       </c>
       <c r="AF31" t="n">
-        <v>23.19386368245943</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>20.94226355035723</v>
+        <v>20.86378972793428</v>
       </c>
       <c r="AH31" t="n">
-        <v>25.53877135630857</v>
+        <v>3.914436272084528</v>
       </c>
       <c r="AI31" t="n">
-        <v>3.649762625073913</v>
+        <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3.245614618655743</v>
+        <v>6.316006593707006</v>
       </c>
       <c r="AK31" t="n">
-        <v>1.431587984633083</v>
+        <v>14.1849115345512</v>
       </c>
       <c r="AL31" t="n">
-        <v>22.77350871459262</v>
+        <v>7.69387815334784</v>
       </c>
       <c r="AM31" t="n">
-        <v>1.697977758245183</v>
+        <v>56.76718176417288</v>
       </c>
       <c r="AN31" t="n">
-        <v>9.751089452423173</v>
+        <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>16.84375663667223</v>
+        <v>0</v>
       </c>
       <c r="AP31" t="n">
         <v>0</v>
       </c>
       <c r="AQ31" t="n">
-        <v>68.00286059280357</v>
+        <v>3.668369836254989</v>
       </c>
       <c r="AR31" t="n">
-        <v>3.115014886100287</v>
+        <v>10.5811574892572</v>
       </c>
       <c r="AS31" t="n">
-        <v>8.250014601970658</v>
+        <v>0.8634026242271811</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.23426061573977</v>
+        <v>7.653784818366694</v>
       </c>
       <c r="AU31" t="n">
-        <v>3.195056252303312</v>
+        <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>2.920460194777577</v>
+        <v>10.62348446750428</v>
       </c>
       <c r="AW31" t="n">
-        <v>2.819798228983368</v>
+        <v>5.213638048413953</v>
       </c>
       <c r="AX31" t="n">
-        <v>14.471867102724</v>
+        <v>5.579957071897732</v>
       </c>
     </row>
   </sheetData>
